--- a/reps.xlsx
+++ b/reps.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karln\eclipse-workspace\congress-legislators\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="0" windowWidth="11835" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="-780" yWindow="0" windowWidth="11832" windowHeight="7488" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reps" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -65,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,18 +598,38 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -616,6 +641,7 @@
               <a:srgbClr val="0070C0"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>reps!$A$2:$A$55</c:f>
@@ -794,157 +820,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>78</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>65</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>61</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>56</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>65</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>63</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>59</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>61</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>74</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>66</c:v>
@@ -953,11 +979,16 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E456-42B2-9746-4A9E3545C7A2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -970,6 +1001,7 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>reps!$A$2:$A$55</c:f>
@@ -1148,177 +1180,192 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>40</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E456-42B2-9746-4A9E3545C7A2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="83592320"/>
         <c:axId val="83594240"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1352,7 +1399,7 @@
                   <c:v>66.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.5</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63</c:v>
@@ -1364,13 +1411,13 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.5</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>63</c:v>
@@ -1382,13 +1429,13 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>61</c:v>
@@ -1412,13 +1459,13 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>57</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>57</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>56.5</c:v>
@@ -1433,7 +1480,7 @@
                   <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>56.5</c:v>
@@ -1442,7 +1489,7 @@
                   <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>56.5</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>53</c:v>
@@ -1457,7 +1504,7 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>53</c:v>
@@ -1472,7 +1519,7 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>53</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>50.5</c:v>
@@ -1481,7 +1528,7 @@
                   <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>50.5</c:v>
@@ -1490,7 +1537,7 @@
                   <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>50.5</c:v>
@@ -1502,7 +1549,7 @@
                   <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>50.5</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>48</c:v>
@@ -1510,7 +1557,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E456-42B2-9746-4A9E3545C7A2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="83592320"/>
         <c:axId val="83594240"/>
       </c:scatterChart>
@@ -1519,14 +1580,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="83594240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="83594240"/>
@@ -1534,9 +1599,12 @@
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="83592320"/>
         <c:crosses val="autoZero"/>
@@ -1545,10 +1613,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1559,14 +1628,26 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1578,6 +1659,7 @@
               <a:srgbClr val="0070C0"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>reps!$A$2:$A$55</c:f>
@@ -1756,16 +1838,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>147</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>138</c:v>
@@ -1774,152 +1856,157 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>119</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>118</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>121</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>119</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>118</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>109</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>107</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>85</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>85</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>76</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>76</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>76</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>81</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>82</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>70</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>79</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>84</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>84</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>63</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0F7-4B11-B6C1-5E6D5BDFE55F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1932,6 +2019,7 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>reps!$A$2:$A$55</c:f>
@@ -2110,177 +2198,192 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>60</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>73</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>97</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>106</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>106</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>105</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>117</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>110</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>108</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>103</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>126</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>131</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0F7-4B11-B6C1-5E6D5BDFE55F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="85671936"/>
         <c:axId val="85673856"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -2314,13 +2417,13 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>82.5</c:v>
@@ -2338,13 +2441,13 @@
                   <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82.5</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>83.5</c:v>
@@ -2374,7 +2477,7 @@
                   <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83.5</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>87.5</c:v>
@@ -2383,10 +2486,10 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>88</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>87.5</c:v>
@@ -2404,7 +2507,7 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>87.5</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>91</c:v>
@@ -2434,10 +2537,10 @@
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>91</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>93.5</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>93.5</c:v>
@@ -2449,13 +2552,13 @@
                   <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>93.5</c:v>
+                  <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>93.5</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>93.5</c:v>
@@ -2464,15 +2567,29 @@
                   <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>93.5</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>97</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C0F7-4B11-B6C1-5E6D5BDFE55F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="85671936"/>
         <c:axId val="85673856"/>
       </c:scatterChart>
@@ -2481,14 +2598,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="85673856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="85673856"/>
@@ -2496,9 +2617,12 @@
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="85671936"/>
         <c:crosses val="autoZero"/>
@@ -2507,10 +2631,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2521,14 +2646,26 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2540,6 +2677,7 @@
               <a:srgbClr val="0070C0"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>reps!$A$2:$A$55</c:f>
@@ -2718,37 +2856,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>68</c:v>
@@ -2760,37 +2898,37 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>84</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>83</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>78</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>74</c:v>
@@ -2802,49 +2940,49 @@
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>78</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>81</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>58</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>52</c:v>
@@ -2856,25 +2994,25 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>64</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>65</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>70</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>48</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>47</c:v>
@@ -2882,6 +3020,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03EA-4D14-A105-359A88E1899A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2894,6 +3037,7 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>reps!$A$2:$A$55</c:f>
@@ -3072,79 +3216,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>77</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>65</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>63</c:v>
@@ -3156,52 +3300,52 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>56</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>54</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>54</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>71</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>67</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>67</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>67</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>68</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>72</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>71</c:v>
@@ -3210,25 +3354,25 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>71</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>59</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>54</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>76</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>71</c:v>
@@ -3236,13 +3380,28 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03EA-4D14-A105-359A88E1899A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="85716352"/>
         <c:axId val="85715584"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -3273,10 +3432,10 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>74.5</c:v>
@@ -3288,16 +3447,16 @@
                   <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>74.5</c:v>
@@ -3306,19 +3465,19 @@
                   <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>72.5</c:v>
@@ -3336,7 +3495,7 @@
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>72.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>68.5</c:v>
@@ -3366,7 +3525,7 @@
                   <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>68.5</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>64.5</c:v>
@@ -3396,10 +3555,10 @@
                   <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>64.5</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>62</c:v>
@@ -3411,10 +3570,10 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>62</c:v>
@@ -3426,7 +3585,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>59</c:v>
@@ -3434,7 +3593,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-03EA-4D14-A105-359A88E1899A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="85716352"/>
         <c:axId val="85715584"/>
       </c:scatterChart>
@@ -3443,14 +3616,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="85715584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="85715584"/>
@@ -3458,9 +3635,12 @@
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="85716352"/>
         <c:crosses val="autoZero"/>
@@ -3469,10 +3649,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3483,14 +3664,26 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3502,6 +3695,7 @@
               <a:srgbClr val="0070C0"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>reps!$A$2:$A$55</c:f>
@@ -3680,85 +3874,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>55</c:v>
@@ -3770,73 +3964,73 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>49</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>53</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>60</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>64</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>69</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>78</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>71</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>71</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>79</c:v>
@@ -3844,6 +4038,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9ABE-4425-B4AA-51E603368827}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3856,6 +4055,7 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>reps!$A$2:$A$55</c:f>
@@ -4034,85 +4234,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>57</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>56</c:v>
@@ -4124,73 +4324,73 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>56</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>54</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>70</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>68</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>69</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>66</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>60</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>55</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>49</c:v>
@@ -4198,13 +4398,28 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9ABE-4425-B4AA-51E603368827}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="84588032"/>
         <c:axId val="84589952"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -4232,13 +4447,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>42.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>47</c:v>
@@ -4256,7 +4471,7 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>47.5</c:v>
@@ -4268,19 +4483,19 @@
                   <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>51</c:v>
@@ -4298,7 +4513,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>55.5</c:v>
@@ -4328,7 +4543,7 @@
                   <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55.5</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>59.5</c:v>
@@ -4337,13 +4552,13 @@
                   <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59.5</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.5</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>59.5</c:v>
@@ -4352,22 +4567,22 @@
                   <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59.5</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59.5</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>62</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>62</c:v>
@@ -4385,10 +4600,10 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>64</c:v>
@@ -4396,7 +4611,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9ABE-4425-B4AA-51E603368827}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="84588032"/>
         <c:axId val="84589952"/>
       </c:scatterChart>
@@ -4405,14 +4634,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="84589952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="84589952"/>
@@ -4420,9 +4653,12 @@
           <c:orientation val="minMax"/>
           <c:max val="200"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="84588032"/>
         <c:crosses val="autoZero"/>
@@ -4431,10 +4667,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4461,7 +4698,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4491,7 +4734,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4521,7 +4770,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4551,7 +4806,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4612,7 +4873,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4644,9 +4905,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4678,6 +4957,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4853,16 +5150,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4909,33 +5207,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1960</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4957,22 +5255,22 @@
       </c>
       <c r="Q2">
         <f>(I2+J2)/2</f>
-        <v>42.5</v>
+        <v>42</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R55" si="0">SUM(C2:J2)</f>
-        <v>536</v>
+        <f>SUM(C2:J2)</f>
+        <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1961</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>147</v>
@@ -4984,13 +5282,13 @@
         <v>63</v>
       </c>
       <c r="H3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -4999,53 +5297,53 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N55" si="1">(C3+D3)/2</f>
+        <f>(C3+D3)/2</f>
         <v>66.5</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O55" si="2">(E3+F3)/2</f>
+        <f>(E3+F3)/2</f>
         <v>83</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P55" si="3">(G3+H3)/2</f>
-        <v>76</v>
+        <f>(G3+H3)/2</f>
+        <v>75.5</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q55" si="4">(I3+J3)/2</f>
+        <f>(I3+J3)/2</f>
         <v>42</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
-        <v>535</v>
+        <f>SUM(C3:J3)</f>
+        <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1962</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -5054,27 +5352,27 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
-        <v>66.5</v>
+        <f>(C4+D4)/2</f>
+        <v>63</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
-        <v>83</v>
+        <f>(E4+F4)/2</f>
+        <v>79</v>
       </c>
       <c r="P4">
-        <f t="shared" si="3"/>
-        <v>76</v>
+        <f>(G4+H4)/2</f>
+        <v>74.5</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f>(I4+J4)/2</f>
+        <v>47</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
-        <v>535</v>
+        <f>SUM(C4:J4)</f>
+        <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1963</v>
       </c>
@@ -5085,7 +5383,7 @@
         <v>63</v>
       </c>
       <c r="E5">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F5">
         <v>24</v>
@@ -5109,53 +5407,53 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f>(C5+D5)/2</f>
         <v>63</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <f>(E5+F5)/2</f>
+        <v>79</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f>(G5+H5)/2</f>
         <v>74.5</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
+        <f>(I5+J5)/2</f>
         <v>47</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
-        <v>531</v>
+        <f>SUM(C5:J5)</f>
+        <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1964</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>138</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H6">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I6">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5164,27 +5462,27 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f>(C6+D6)/2</f>
         <v>63</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <f>(E6+F6)/2</f>
+        <v>82.5</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f>(G6+H6)/2</f>
         <v>74.5</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f>(I6+J6)/2</f>
         <v>47</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>531</v>
+        <f>SUM(C6:J6)</f>
+        <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1965</v>
       </c>
@@ -5219,53 +5517,53 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f>(C7+D7)/2</f>
         <v>63</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f>(E7+F7)/2</f>
         <v>82.5</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f>(G7+H7)/2</f>
         <v>74.5</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f>(I7+J7)/2</f>
         <v>47</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:J7)</f>
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1966</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F8">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G8">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H8">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I8">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -5274,35 +5572,35 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f>(C8+D8)/2</f>
+        <v>62.5</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
+        <f>(E8+F8)/2</f>
         <v>82.5</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
-        <v>74.5</v>
+        <f>(G8+H8)/2</f>
+        <v>74</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f>(I8+J8)/2</f>
         <v>47</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
-        <v>534</v>
+        <f>SUM(C8:J8)</f>
+        <v>532</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1967</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>124</v>
@@ -5329,53 +5627,53 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f>(C9+D9)/2</f>
         <v>62.5</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
+        <f>(E9+F9)/2</f>
         <v>82.5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f>(G9+H9)/2</f>
         <v>74</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f>(I9+J9)/2</f>
         <v>47</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:J9)</f>
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1968</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>119</v>
+      </c>
+      <c r="F10">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>89</v>
+      </c>
+      <c r="I10">
         <v>51</v>
       </c>
-      <c r="E10">
-        <v>124</v>
-      </c>
-      <c r="F10">
-        <v>41</v>
-      </c>
-      <c r="G10">
-        <v>57</v>
-      </c>
-      <c r="H10">
-        <v>91</v>
-      </c>
-      <c r="I10">
-        <v>52</v>
-      </c>
       <c r="J10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5384,27 +5682,27 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
+        <f>(C10+D10)/2</f>
+        <v>63</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
+        <f>(E10+F10)/2</f>
         <v>82.5</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
-        <v>74</v>
+        <f>(G10+H10)/2</f>
+        <v>74.5</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
-        <v>47</v>
+        <f>(I10+J10)/2</f>
+        <v>47.5</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
-        <v>532</v>
+        <f>SUM(C10:J10)</f>
+        <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1969</v>
       </c>
@@ -5424,7 +5722,7 @@
         <v>60</v>
       </c>
       <c r="H11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11">
         <v>51</v>
@@ -5439,53 +5737,53 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f>(C11+D11)/2</f>
         <v>63</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
+        <f>(E11+F11)/2</f>
         <v>82.5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
-        <v>74.5</v>
+        <f>(G11+H11)/2</f>
+        <v>74</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f>(I11+J11)/2</f>
         <v>47.5</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
-        <v>535</v>
+        <f>SUM(C11:J11)</f>
+        <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1970</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>118</v>
+      </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <v>81</v>
+      </c>
+      <c r="I12">
         <v>54</v>
       </c>
-      <c r="E12">
-        <v>119</v>
-      </c>
-      <c r="F12">
-        <v>46</v>
-      </c>
-      <c r="G12">
-        <v>61</v>
-      </c>
-      <c r="H12">
-        <v>88</v>
-      </c>
-      <c r="I12">
-        <v>51</v>
-      </c>
       <c r="J12">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5494,35 +5792,35 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f>(C12+D12)/2</f>
         <v>63</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
-        <v>82.5</v>
+        <f>(E12+F12)/2</f>
+        <v>83</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f>(G12+H12)/2</f>
         <v>74.5</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f>(I12+J12)/2</f>
         <v>47.5</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
-        <v>535</v>
+        <f>SUM(C12:J12)</f>
+        <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1971</v>
       </c>
       <c r="C13">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>118</v>
@@ -5549,82 +5847,82 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f>(C13+D13)/2</f>
         <v>63</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f>(E13+F13)/2</f>
         <v>83</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f>(G13+H13)/2</f>
         <v>74.5</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f>(I13+J13)/2</f>
         <v>47.5</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:J13)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1972</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>56</v>
       </c>
       <c r="E14">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F14">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>68</v>
       </c>
       <c r="H14">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I14">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J14">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f>(C14+D14)/2</f>
+        <v>61</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
-        <v>83</v>
+        <f>(E14+F14)/2</f>
+        <v>83.5</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
-        <v>74.5</v>
+        <f>(G14+H14)/2</f>
+        <v>72</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
-        <v>47.5</v>
+        <f>(I14+J14)/2</f>
+        <v>51</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C14:J14)</f>
+        <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1973</v>
       </c>
@@ -5632,7 +5930,7 @@
         <v>66</v>
       </c>
       <c r="D15">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>111</v>
@@ -5644,7 +5942,7 @@
         <v>70</v>
       </c>
       <c r="H15">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>57</v>
@@ -5659,53 +5957,53 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
+        <f>(C15+D15)/2</f>
+        <v>61</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f>(E15+F15)/2</f>
         <v>83.5</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f>(G15+H15)/2</f>
+        <v>72.5</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f>(I15+J15)/2</f>
         <v>51</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
-        <v>538</v>
+        <f>SUM(C15:J15)</f>
+        <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1974</v>
       </c>
       <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+      <c r="F16">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>84</v>
+      </c>
+      <c r="H16">
+        <v>61</v>
+      </c>
+      <c r="I16">
         <v>66</v>
       </c>
-      <c r="D16">
-        <v>57</v>
-      </c>
-      <c r="E16">
-        <v>112</v>
-      </c>
-      <c r="F16">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>71</v>
-      </c>
-      <c r="H16">
-        <v>75</v>
-      </c>
-      <c r="I16">
-        <v>56</v>
-      </c>
       <c r="J16">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -5714,27 +6012,27 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
+        <f>(C16+D16)/2</f>
+        <v>60.5</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
+        <f>(E16+F16)/2</f>
         <v>83.5</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f>(G16+H16)/2</f>
+        <v>72.5</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
-        <v>51</v>
+        <f>(I16+J16)/2</f>
+        <v>50.5</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
-        <v>538</v>
+        <f>SUM(C16:J16)</f>
+        <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1975</v>
       </c>
@@ -5751,7 +6049,7 @@
         <v>47</v>
       </c>
       <c r="G17">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17">
         <v>61</v>
@@ -5769,53 +6067,53 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f>(C17+D17)/2</f>
         <v>61</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
+        <f>(E17+F17)/2</f>
         <v>83.5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f>(G17+H17)/2</f>
+        <v>72.5</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f>(I17+J17)/2</f>
         <v>50.5</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
-        <v>534</v>
+        <f>SUM(C17:J17)</f>
+        <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1976</v>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I18">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J18">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -5824,27 +6122,27 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f>(C18+D18)/2</f>
         <v>61</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
+        <f>(E18+F18)/2</f>
         <v>83.5</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f>(G18+H18)/2</f>
+        <v>72.5</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
-        <v>50.5</v>
+        <f>(I18+J18)/2</f>
+        <v>51</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
-        <v>534</v>
+        <f>SUM(C18:J18)</f>
+        <v>536</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1977</v>
       </c>
@@ -5861,10 +6159,10 @@
         <v>45</v>
       </c>
       <c r="G19">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19">
         <v>64</v>
@@ -5879,82 +6177,82 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f>(C19+D19)/2</f>
         <v>61</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
+        <f>(E19+F19)/2</f>
         <v>83.5</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f>(G19+H19)/2</f>
         <v>72.5</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f>(I19+J19)/2</f>
         <v>51</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f>SUM(C19:J19)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1978</v>
       </c>
       <c r="C20">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E20">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H20">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I20">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J20">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
         <v>2</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f>(C20+D20)/2</f>
         <v>61</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
+        <f>(E20+F20)/2</f>
         <v>83.5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f>(G20+H20)/2</f>
         <v>72.5</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f>(I20+J20)/2</f>
         <v>51</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f>SUM(C20:J20)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1979</v>
       </c>
@@ -5989,82 +6287,82 @@
         <v>2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f>(C21+D21)/2</f>
         <v>61</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
+        <f>(E21+F21)/2</f>
         <v>83.5</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f>(G21+H21)/2</f>
         <v>72.5</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f>(I21+J21)/2</f>
         <v>51</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f>SUM(C21:J21)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1980</v>
       </c>
       <c r="C22">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E22">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F22">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G22">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H22">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I22">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J22">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
         <v>1</v>
       </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f>(C22+D22)/2</f>
         <v>61</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
+        <f>(E22+F22)/2</f>
         <v>83.5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f>(G22+H22)/2</f>
         <v>72.5</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
+        <f>(I22+J22)/2</f>
         <v>51</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:J22)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1981</v>
       </c>
@@ -6099,53 +6397,53 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f>(C23+D23)/2</f>
         <v>61</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
+        <f>(E23+F23)/2</f>
         <v>83.5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f>(G23+H23)/2</f>
         <v>72.5</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f>(I23+J23)/2</f>
         <v>51</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f>SUM(C23:J23)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1982</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>121</v>
+      </c>
+      <c r="F24">
+        <v>54</v>
+      </c>
+      <c r="G24">
+        <v>72</v>
+      </c>
+      <c r="H24">
+        <v>65</v>
+      </c>
+      <c r="I24">
+        <v>55</v>
+      </c>
+      <c r="J24">
         <v>56</v>
-      </c>
-      <c r="E24">
-        <v>107</v>
-      </c>
-      <c r="F24">
-        <v>60</v>
-      </c>
-      <c r="G24">
-        <v>68</v>
-      </c>
-      <c r="H24">
-        <v>77</v>
-      </c>
-      <c r="I24">
-        <v>48</v>
-      </c>
-      <c r="J24">
-        <v>54</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -6154,27 +6452,27 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <f>(C24+D24)/2</f>
+        <v>56.5</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
-        <v>83.5</v>
+        <f>(E24+F24)/2</f>
+        <v>87.5</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
+        <f>(G24+H24)/2</f>
+        <v>68.5</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
-        <v>51</v>
+        <f>(I24+J24)/2</f>
+        <v>55.5</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f>SUM(C24:J24)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1983</v>
       </c>
@@ -6182,7 +6480,7 @@
         <v>67</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>121</v>
@@ -6197,10 +6495,10 @@
         <v>65</v>
       </c>
       <c r="I25">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -6209,53 +6507,53 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>(C25+D25)/2</f>
+        <v>56.5</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
+        <f>(E25+F25)/2</f>
         <v>87.5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f>(G25+H25)/2</f>
         <v>68.5</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f>(I25+J25)/2</f>
         <v>55.5</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
-        <v>537</v>
+        <f>SUM(C25:J25)</f>
+        <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1984</v>
       </c>
       <c r="C26">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F26">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G26">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H26">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I26">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J26">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -6264,27 +6562,27 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>(C26+D26)/2</f>
+        <v>56.5</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
+        <f>(E26+F26)/2</f>
         <v>87.5</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f>(G26+H26)/2</f>
         <v>68.5</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f>(I26+J26)/2</f>
         <v>55.5</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
-        <v>537</v>
+        <f>SUM(C26:J26)</f>
+        <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1985</v>
       </c>
@@ -6298,7 +6596,7 @@
         <v>112</v>
       </c>
       <c r="F27">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27">
         <v>74</v>
@@ -6319,41 +6617,41 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f>(C27+D27)/2</f>
         <v>56.5</v>
       </c>
       <c r="O27">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <f>(E27+F27)/2</f>
+        <v>87.5</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f>(G27+H27)/2</f>
         <v>68.5</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f>(I27+J27)/2</f>
         <v>55.5</v>
       </c>
       <c r="R27">
-        <f t="shared" si="0"/>
-        <v>537</v>
+        <f>SUM(C27:J27)</f>
+        <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1986</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F28">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G28">
         <v>74</v>
@@ -6362,10 +6660,10 @@
         <v>63</v>
       </c>
       <c r="I28">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J28">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -6374,27 +6672,27 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f>(C28+D28)/2</f>
         <v>56.5</v>
       </c>
       <c r="O28">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <f>(E28+F28)/2</f>
+        <v>87.5</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f>(G28+H28)/2</f>
         <v>68.5</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f>(I28+J28)/2</f>
         <v>55.5</v>
       </c>
       <c r="R28">
-        <f t="shared" si="0"/>
-        <v>537</v>
+        <f>SUM(C28:J28)</f>
+        <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1987</v>
       </c>
@@ -6429,47 +6727,47 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f>(C29+D29)/2</f>
         <v>56.5</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
+        <f>(E29+F29)/2</f>
         <v>87.5</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f>(G29+H29)/2</f>
         <v>68.5</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f>(I29+J29)/2</f>
         <v>55.5</v>
       </c>
       <c r="R29">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:J29)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1988</v>
       </c>
       <c r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F30">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G30">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H30">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I30">
         <v>55</v>
@@ -6484,35 +6782,35 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f>(C30+D30)/2</f>
         <v>56.5</v>
       </c>
       <c r="O30">
-        <f t="shared" si="2"/>
+        <f>(E30+F30)/2</f>
         <v>87.5</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f>(G30+H30)/2</f>
         <v>68.5</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f>(I30+J30)/2</f>
         <v>55.5</v>
       </c>
       <c r="R30">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:J30)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1989</v>
       </c>
       <c r="C31">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>117</v>
@@ -6539,53 +6837,53 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
-        <v>56.5</v>
+        <f>(C31+D31)/2</f>
+        <v>55.5</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
+        <f>(E31+F31)/2</f>
         <v>87.5</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f>(G31+H31)/2</f>
         <v>68.5</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f>(I31+J31)/2</f>
         <v>55.5</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C31:J31)</f>
+        <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1990</v>
       </c>
       <c r="C32">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F32">
+        <v>57</v>
+      </c>
+      <c r="G32">
+        <v>82</v>
+      </c>
+      <c r="H32">
+        <v>55</v>
+      </c>
+      <c r="I32">
         <v>58</v>
       </c>
-      <c r="G32">
-        <v>78</v>
-      </c>
-      <c r="H32">
-        <v>59</v>
-      </c>
-      <c r="I32">
-        <v>55</v>
-      </c>
       <c r="J32">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L32">
         <v>3</v>
@@ -6594,27 +6892,27 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f>(C32+D32)/2</f>
         <v>56.5</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f>(E32+F32)/2</f>
         <v>87.5</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <f>(G32+H32)/2</f>
         <v>68.5</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f>(I32+J32)/2</f>
         <v>55.5</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f>SUM(C32:J32)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1991</v>
       </c>
@@ -6631,10 +6929,10 @@
         <v>57</v>
       </c>
       <c r="G33">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33">
         <v>58</v>
@@ -6649,82 +6947,82 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f>(C33+D33)/2</f>
         <v>56.5</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f>(E33+F33)/2</f>
         <v>87.5</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <f>(G33+H33)/2</f>
         <v>68.5</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f>(I33+J33)/2</f>
         <v>55.5</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:J33)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1992</v>
       </c>
       <c r="C34">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F34">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G34">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H34">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I34">
+        <v>64</v>
+      </c>
+      <c r="J34">
+        <v>54</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>(C34+D34)/2</f>
+        <v>53</v>
+      </c>
+      <c r="O34">
+        <f>(E34+F34)/2</f>
+        <v>90.5</v>
+      </c>
+      <c r="P34">
+        <f>(G34+H34)/2</f>
+        <v>63.5</v>
+      </c>
+      <c r="Q34">
+        <f>(I34+J34)/2</f>
         <v>59</v>
       </c>
-      <c r="J34">
-        <v>52</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
-        <v>56.5</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="2"/>
-        <v>87.5</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="4"/>
-        <v>55.5</v>
-      </c>
       <c r="R34">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C34:J34)</f>
+        <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1993</v>
       </c>
@@ -6735,16 +7033,16 @@
         <v>45</v>
       </c>
       <c r="E35">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H35">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35">
         <v>65</v>
@@ -6759,82 +7057,82 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f>(C35+D35)/2</f>
         <v>53</v>
       </c>
       <c r="O35">
-        <f t="shared" si="2"/>
+        <f>(E35+F35)/2</f>
         <v>91</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <f>(G35+H35)/2</f>
         <v>64.5</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f>(I35+J35)/2</f>
         <v>59.5</v>
       </c>
       <c r="R35">
-        <f t="shared" si="0"/>
+        <f>SUM(C35:J35)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1994</v>
       </c>
       <c r="C36">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E36">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="F36">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G36">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H36">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I36">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J36">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f>(C36+D36)/2</f>
         <v>53</v>
       </c>
       <c r="O36">
-        <f t="shared" si="2"/>
+        <f>(E36+F36)/2</f>
         <v>91</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f>(G36+H36)/2</f>
         <v>64.5</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="4"/>
+        <f>(I36+J36)/2</f>
         <v>59.5</v>
       </c>
       <c r="R36">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:J36)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1995</v>
       </c>
@@ -6845,22 +7143,22 @@
         <v>50</v>
       </c>
       <c r="E37">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F37">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G37">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H37">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I37">
         <v>48</v>
       </c>
       <c r="J37">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L37">
         <v>3</v>
@@ -6869,87 +7167,87 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f>(C37+D37)/2</f>
         <v>53</v>
       </c>
       <c r="O37">
-        <f t="shared" si="2"/>
+        <f>(E37+F37)/2</f>
         <v>91</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <f>(G37+H37)/2</f>
         <v>64.5</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
-        <v>59.5</v>
+        <f>(I37+J37)/2</f>
+        <v>59</v>
       </c>
       <c r="R37">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C37:J37)</f>
+        <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1996</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E38">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F38">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G38">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H38">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I38">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J38">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f>(C38+D38)/2</f>
         <v>53</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
+        <f>(E38+F38)/2</f>
         <v>91</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <f>(G38+H38)/2</f>
         <v>64.5</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="4"/>
+        <f>(I38+J38)/2</f>
         <v>59.5</v>
       </c>
       <c r="R38">
-        <f t="shared" si="0"/>
+        <f>SUM(C38:J38)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1997</v>
       </c>
       <c r="C39">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <v>44</v>
@@ -6961,16 +7259,16 @@
         <v>106</v>
       </c>
       <c r="G39">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H39">
+        <v>66</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+      <c r="J39">
         <v>67</v>
-      </c>
-      <c r="I39">
-        <v>51</v>
-      </c>
-      <c r="J39">
-        <v>68</v>
       </c>
       <c r="L39">
         <v>4</v>
@@ -6979,53 +7277,53 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f>(C39+D39)/2</f>
+        <v>52.5</v>
       </c>
       <c r="O39">
-        <f t="shared" si="2"/>
+        <f>(E39+F39)/2</f>
         <v>91</v>
       </c>
       <c r="P39">
-        <f t="shared" si="3"/>
+        <f>(G39+H39)/2</f>
         <v>64.5</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="4"/>
-        <v>59.5</v>
+        <f>(I39+J39)/2</f>
+        <v>58.5</v>
       </c>
       <c r="R39">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C39:J39)</f>
+        <v>533</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1998</v>
       </c>
       <c r="C40">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E40">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G40">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H40">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J40">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L40">
         <v>4</v>
@@ -7034,27 +7332,27 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f>(C40+D40)/2</f>
         <v>53</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
+        <f>(E40+F40)/2</f>
         <v>91</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <f>(G40+H40)/2</f>
         <v>64.5</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="4"/>
+        <f>(I40+J40)/2</f>
         <v>59.5</v>
       </c>
       <c r="R40">
-        <f t="shared" si="0"/>
+        <f>SUM(C40:J40)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1999</v>
       </c>
@@ -7071,10 +7369,10 @@
         <v>107</v>
       </c>
       <c r="G41">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H41">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41">
         <v>53</v>
@@ -7089,82 +7387,82 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f>(C41+D41)/2</f>
         <v>53</v>
       </c>
       <c r="O41">
-        <f t="shared" si="2"/>
+        <f>(E41+F41)/2</f>
         <v>91</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <f>(G41+H41)/2</f>
         <v>64.5</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="4"/>
+        <f>(I41+J41)/2</f>
         <v>59.5</v>
       </c>
       <c r="R41">
-        <f t="shared" si="0"/>
+        <f>SUM(C41:J41)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F42">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G42">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I42">
+        <v>59</v>
+      </c>
+      <c r="J42">
+        <v>59</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f>(C42+D42)/2</f>
         <v>53</v>
       </c>
-      <c r="J42">
-        <v>66</v>
-      </c>
-      <c r="L42">
-        <v>4</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
       <c r="O42">
-        <f t="shared" si="2"/>
+        <f>(E42+F42)/2</f>
         <v>91</v>
       </c>
       <c r="P42">
-        <f t="shared" si="3"/>
+        <f>(G42+H42)/2</f>
         <v>64.5</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="4"/>
-        <v>59.5</v>
+        <f>(I42+J42)/2</f>
+        <v>59</v>
       </c>
       <c r="R42">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C42:J42)</f>
+        <v>535</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2001</v>
       </c>
@@ -7199,53 +7497,53 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f>(C43+D43)/2</f>
         <v>53</v>
       </c>
       <c r="O43">
-        <f t="shared" si="2"/>
+        <f>(E43+F43)/2</f>
         <v>91</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <f>(G43+H43)/2</f>
         <v>64.5</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="4"/>
+        <f>(I43+J43)/2</f>
         <v>59.5</v>
       </c>
       <c r="R43">
-        <f t="shared" si="0"/>
+        <f>SUM(C43:J43)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2002</v>
       </c>
       <c r="C44">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F44">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G44">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H44">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I44">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J44">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L44">
         <v>3</v>
@@ -7254,27 +7552,27 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f>(C44+D44)/2</f>
+        <v>50.5</v>
       </c>
       <c r="O44">
-        <f t="shared" si="2"/>
-        <v>91</v>
+        <f>(E44+F44)/2</f>
+        <v>93.5</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
-        <v>64.5</v>
+        <f>(G44+H44)/2</f>
+        <v>62</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="4"/>
-        <v>59.5</v>
+        <f>(I44+J44)/2</f>
+        <v>62</v>
       </c>
       <c r="R44">
-        <f t="shared" si="0"/>
+        <f>SUM(C44:J44)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2003</v>
       </c>
@@ -7285,16 +7583,16 @@
         <v>42</v>
       </c>
       <c r="E45">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F45">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G45">
         <v>52</v>
       </c>
       <c r="H45">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I45">
         <v>62</v>
@@ -7309,41 +7607,41 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f>(C45+D45)/2</f>
         <v>50.5</v>
       </c>
       <c r="O45">
-        <f t="shared" si="2"/>
-        <v>93.5</v>
+        <f>(E45+F45)/2</f>
+        <v>93</v>
       </c>
       <c r="P45">
-        <f t="shared" si="3"/>
+        <f>(G45+H45)/2</f>
+        <v>61.5</v>
+      </c>
+      <c r="Q45">
+        <f>(I45+J45)/2</f>
         <v>62</v>
       </c>
-      <c r="Q45">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
       <c r="R45">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C45:J45)</f>
+        <v>534</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2004</v>
       </c>
       <c r="C46">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D46">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E46">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G46">
         <v>53</v>
@@ -7352,10 +7650,10 @@
         <v>71</v>
       </c>
       <c r="I46">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J46">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L46">
         <v>3</v>
@@ -7364,32 +7662,32 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f>(C46+D46)/2</f>
         <v>50.5</v>
       </c>
       <c r="O46">
-        <f t="shared" si="2"/>
+        <f>(E46+F46)/2</f>
         <v>93.5</v>
       </c>
       <c r="P46">
-        <f t="shared" si="3"/>
+        <f>(G46+H46)/2</f>
         <v>62</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <f>(I46+J46)/2</f>
+        <v>61.5</v>
       </c>
       <c r="R46">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C46:J46)</f>
+        <v>535</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2005</v>
       </c>
       <c r="C47">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>40</v>
@@ -7410,7 +7708,7 @@
         <v>64</v>
       </c>
       <c r="J47">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L47">
         <v>3</v>
@@ -7419,53 +7717,53 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
-        <v>50.5</v>
+        <f>(C47+D47)/2</f>
+        <v>50</v>
       </c>
       <c r="O47">
-        <f t="shared" si="2"/>
+        <f>(E47+F47)/2</f>
         <v>93.5</v>
       </c>
       <c r="P47">
-        <f t="shared" si="3"/>
+        <f>(G47+H47)/2</f>
         <v>62</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <f>(I47+J47)/2</f>
+        <v>61.5</v>
       </c>
       <c r="R47">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C47:J47)</f>
+        <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2006</v>
       </c>
       <c r="C48">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F48">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G48">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H48">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I48">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J48">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L48">
         <v>3</v>
@@ -7474,27 +7772,27 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f>(C48+D48)/2</f>
         <v>50.5</v>
       </c>
       <c r="O48">
-        <f t="shared" si="2"/>
+        <f>(E48+F48)/2</f>
         <v>93.5</v>
       </c>
       <c r="P48">
-        <f t="shared" si="3"/>
+        <f>(G48+H48)/2</f>
         <v>62</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="4"/>
+        <f>(I48+J48)/2</f>
         <v>62</v>
       </c>
       <c r="R48">
-        <f t="shared" si="0"/>
+        <f>SUM(C48:J48)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2007</v>
       </c>
@@ -7508,13 +7806,13 @@
         <v>77</v>
       </c>
       <c r="F49">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G49">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H49">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I49">
         <v>69</v>
@@ -7529,82 +7827,82 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f>(C49+D49)/2</f>
         <v>50.5</v>
       </c>
       <c r="O49">
-        <f t="shared" si="2"/>
-        <v>93.5</v>
+        <f>(E49+F49)/2</f>
+        <v>92.5</v>
       </c>
       <c r="P49">
-        <f t="shared" si="3"/>
+        <f>(G49+H49)/2</f>
+        <v>61</v>
+      </c>
+      <c r="Q49">
+        <f>(I49+J49)/2</f>
         <v>62</v>
       </c>
-      <c r="Q49">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
       <c r="R49">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C49:J49)</f>
+        <v>532</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2008</v>
       </c>
       <c r="C50">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E50">
+        <v>84</v>
+      </c>
+      <c r="F50">
+        <v>103</v>
+      </c>
+      <c r="G50">
+        <v>69</v>
+      </c>
+      <c r="H50">
+        <v>53</v>
+      </c>
+      <c r="I50">
         <v>79</v>
       </c>
-      <c r="F50">
-        <v>108</v>
-      </c>
-      <c r="G50">
-        <v>65</v>
-      </c>
-      <c r="H50">
-        <v>59</v>
-      </c>
-      <c r="I50">
-        <v>69</v>
-      </c>
       <c r="J50">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
-        <v>50.5</v>
+        <f>(C50+D50)/2</f>
+        <v>50</v>
       </c>
       <c r="O50">
-        <f t="shared" si="2"/>
+        <f>(E50+F50)/2</f>
         <v>93.5</v>
       </c>
       <c r="P50">
-        <f t="shared" si="3"/>
+        <f>(G50+H50)/2</f>
+        <v>61</v>
+      </c>
+      <c r="Q50">
+        <f>(I50+J50)/2</f>
         <v>62</v>
       </c>
-      <c r="Q50">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
       <c r="R50">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C50:J50)</f>
+        <v>533</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2009</v>
       </c>
@@ -7615,7 +7913,7 @@
         <v>19</v>
       </c>
       <c r="E51">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51">
         <v>103</v>
@@ -7639,53 +7937,53 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f>(C51+D51)/2</f>
         <v>50.5</v>
       </c>
       <c r="O51">
-        <f t="shared" si="2"/>
-        <v>93.5</v>
+        <f>(E51+F51)/2</f>
+        <v>93</v>
       </c>
       <c r="P51">
-        <f t="shared" si="3"/>
+        <f>(G51+H51)/2</f>
         <v>62</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="4"/>
+        <f>(I51+J51)/2</f>
         <v>62</v>
       </c>
       <c r="R51">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C51:J51)</f>
+        <v>535</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2010</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E52">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F52">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="G52">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H52">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I52">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J52">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L52">
         <v>5</v>
@@ -7694,27 +7992,27 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f>(C52+D52)/2</f>
         <v>50.5</v>
       </c>
       <c r="O52">
-        <f t="shared" si="2"/>
+        <f>(E52+F52)/2</f>
         <v>93.5</v>
       </c>
       <c r="P52">
-        <f t="shared" si="3"/>
+        <f>(G52+H52)/2</f>
         <v>62</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="4"/>
+        <f>(I52+J52)/2</f>
         <v>62</v>
       </c>
       <c r="R52">
-        <f t="shared" si="0"/>
+        <f>SUM(C52:J52)</f>
         <v>536</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2011</v>
       </c>
@@ -7737,7 +8035,7 @@
         <v>77</v>
       </c>
       <c r="I53">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J53">
         <v>53</v>
@@ -7749,27 +8047,27 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
+        <f>(C53+D53)/2</f>
         <v>50.5</v>
       </c>
       <c r="O53">
-        <f t="shared" si="2"/>
+        <f>(E53+F53)/2</f>
         <v>93.5</v>
       </c>
       <c r="P53">
-        <f t="shared" si="3"/>
+        <f>(G53+H53)/2</f>
         <v>62</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <f>(I53+J53)/2</f>
+        <v>61</v>
       </c>
       <c r="R53">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C53:J53)</f>
+        <v>534</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2012</v>
       </c>
@@ -7777,25 +8075,25 @@
         <v>66</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E54">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F54">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G54">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H54">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I54">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L54">
         <v>5</v>
@@ -7804,41 +8102,41 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
-        <v>50.5</v>
+        <f>(C54+D54)/2</f>
+        <v>48</v>
       </c>
       <c r="O54">
-        <f t="shared" si="2"/>
-        <v>93.5</v>
+        <f>(E54+F54)/2</f>
+        <v>96.5</v>
       </c>
       <c r="P54">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f>(G54+H54)/2</f>
+        <v>58</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <f>(I54+J54)/2</f>
+        <v>64</v>
       </c>
       <c r="R54">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C54:J54)</f>
+        <v>533</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2013</v>
       </c>
       <c r="C55">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D55">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G55">
         <v>47</v>
@@ -7859,24 +8157,24 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
+        <f>(C55+D55)/2</f>
         <v>48</v>
       </c>
       <c r="O55">
-        <f t="shared" si="2"/>
-        <v>97</v>
+        <f>(E55+F55)/2</f>
+        <v>95</v>
       </c>
       <c r="P55">
-        <f t="shared" si="3"/>
+        <f>(G55+H55)/2</f>
         <v>59</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="4"/>
+        <f>(I55+J55)/2</f>
         <v>64</v>
       </c>
       <c r="R55">
-        <f t="shared" si="0"/>
-        <v>536</v>
+        <f>SUM(C55:J55)</f>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -7885,12 +8183,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reps.xlsx
+++ b/reps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="0" windowWidth="11832" windowHeight="7488" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-780" yWindow="0" windowWidth="11832" windowHeight="7488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reps" sheetId="1" r:id="rId1"/>
@@ -820,157 +820,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>67</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>64</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>67</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>61</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>56</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>65</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>63</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>74</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>80</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>66</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>66</c:v>
@@ -1180,163 +1180,163 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>56</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>30</c:v>
@@ -1399,7 +1399,7 @@
                   <c:v>66.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>66.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63</c:v>
@@ -1411,13 +1411,13 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.5</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>63</c:v>
@@ -1429,13 +1429,13 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>61</c:v>
@@ -1459,7 +1459,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>56.5</c:v>
@@ -1480,16 +1480,16 @@
                   <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.5</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>56.5</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>53</c:v>
@@ -1519,7 +1519,7 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50.5</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>50.5</c:v>
@@ -1528,7 +1528,7 @@
                   <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>50.5</c:v>
@@ -1537,7 +1537,7 @@
                   <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>50.5</c:v>
@@ -1549,7 +1549,7 @@
                   <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>48</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>48</c:v>
@@ -1838,166 +1838,166 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>147</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>118</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>120</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>107</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>121</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>112</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>119</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>117</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>118</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>110</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>82</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>77</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>79</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>77</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>83</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>61</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,121 +2198,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>71</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>106</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>107</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>107</c:v>
@@ -2324,40 +2324,40 @@
                   <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>108</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>117</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>110</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>103</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>126</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>130</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>128</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,13 +2417,13 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.5</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>82.5</c:v>
@@ -2441,13 +2441,13 @@
                   <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83.5</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>83.5</c:v>
@@ -2477,7 +2477,7 @@
                   <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87.5</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>87.5</c:v>
@@ -2507,7 +2507,7 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>90.5</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>91</c:v>
@@ -2531,34 +2531,34 @@
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>91</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>93.5</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>93.5</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>93.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>92.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>93.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>93.5</c:v>
@@ -2567,10 +2567,10 @@
                   <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>96.5</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,166 +2856,166 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="44">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>53</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>53</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>63</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>71</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>47</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>47</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>46</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>47</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,121 +3216,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>88</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>77</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>65</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>66</c:v>
@@ -3339,43 +3339,43 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>66</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>71</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>71</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>71</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="52">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>70</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>71</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3429,151 +3429,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>63.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>64.5</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>64.5</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>62</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>62</c:v>
@@ -3582,13 +3582,13 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>62</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,166 +3874,166 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="44">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>79</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>79</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>69</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>79</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>79</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4234,118 +4234,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>57</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>66</c:v>
@@ -4354,46 +4354,46 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="48">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>45</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>53</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>49</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4447,133 +4447,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.5</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.5</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>59</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>59.5</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>58.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>62</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>62</c:v>
@@ -4582,31 +4582,31 @@
                   <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>61.5</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>62</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>61</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>64</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>64</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5153,7 +5153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5212,28 +5214,28 @@
         <v>1960</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H2">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I2">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -5242,23 +5244,23 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <f>(C2+D2)/2</f>
+        <f t="shared" ref="N2:N33" si="0">(C2+D2)/2</f>
         <v>66.5</v>
       </c>
       <c r="O2">
-        <f>(E2+F2)/2</f>
+        <f t="shared" ref="O2:O33" si="1">(E2+F2)/2</f>
         <v>83</v>
       </c>
       <c r="P2">
-        <f>(G2+H2)/2</f>
+        <f t="shared" ref="P2:P33" si="2">(G2+H2)/2</f>
+        <v>42</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q33" si="3">(I2+J2)/2</f>
         <v>76</v>
       </c>
-      <c r="Q2">
-        <f>(I2+J2)/2</f>
-        <v>42</v>
-      </c>
       <c r="R2">
-        <f>SUM(C2:J2)</f>
+        <f t="shared" ref="R2:R33" si="4">SUM(C2:J2)</f>
         <v>535</v>
       </c>
     </row>
@@ -5267,10 +5269,10 @@
         <v>1961</v>
       </c>
       <c r="C3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>147</v>
@@ -5279,16 +5281,16 @@
         <v>19</v>
       </c>
       <c r="G3">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
         <v>63</v>
       </c>
-      <c r="H3">
-        <v>88</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
-      </c>
       <c r="J3">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -5297,24 +5299,24 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <f>(C3+D3)/2</f>
+        <f t="shared" si="0"/>
         <v>66.5</v>
       </c>
       <c r="O3">
-        <f>(E3+F3)/2</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="P3">
-        <f>(G3+H3)/2</f>
-        <v>75.5</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="Q3">
-        <f>(I3+J3)/2</f>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
       <c r="R3">
-        <f>SUM(C3:J3)</f>
-        <v>534</v>
+        <f t="shared" si="4"/>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -5322,28 +5324,28 @@
         <v>1962</v>
       </c>
       <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>147</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
         <v>63</v>
       </c>
-      <c r="D4">
-        <v>63</v>
-      </c>
-      <c r="E4">
-        <v>134</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>62</v>
-      </c>
-      <c r="H4">
-        <v>87</v>
-      </c>
-      <c r="I4">
-        <v>56</v>
-      </c>
       <c r="J4">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -5352,24 +5354,24 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <f>(C4+D4)/2</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>66.5</v>
       </c>
       <c r="O4">
-        <f>(E4+F4)/2</f>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="P4">
-        <f>(G4+H4)/2</f>
-        <v>74.5</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="Q4">
-        <f>(I4+J4)/2</f>
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
       <c r="R4">
-        <f>SUM(C4:J4)</f>
-        <v>527</v>
+        <f t="shared" si="4"/>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -5389,16 +5391,16 @@
         <v>24</v>
       </c>
       <c r="G5">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
         <v>62</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>87</v>
-      </c>
-      <c r="I5">
-        <v>56</v>
-      </c>
-      <c r="J5">
-        <v>38</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -5407,23 +5409,23 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <f>(C5+D5)/2</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="O5">
-        <f>(E5+F5)/2</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="P5">
-        <f>(G5+H5)/2</f>
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
         <v>74.5</v>
       </c>
-      <c r="Q5">
-        <f>(I5+J5)/2</f>
-        <v>47</v>
-      </c>
       <c r="R5">
-        <f>SUM(C5:J5)</f>
+        <f t="shared" si="4"/>
         <v>527</v>
       </c>
     </row>
@@ -5432,28 +5434,28 @@
         <v>1964</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="I6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5462,24 +5464,24 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <f>(C6+D6)/2</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="O6">
-        <f>(E6+F6)/2</f>
-        <v>82.5</v>
+        <f t="shared" si="1"/>
+        <v>78.5</v>
       </c>
       <c r="P6">
-        <f>(G6+H6)/2</f>
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
         <v>74.5</v>
       </c>
-      <c r="Q6">
-        <f>(I6+J6)/2</f>
-        <v>47</v>
-      </c>
       <c r="R6">
-        <f>SUM(C6:J6)</f>
-        <v>534</v>
+        <f t="shared" si="4"/>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -5499,16 +5501,16 @@
         <v>27</v>
       </c>
       <c r="G7">
+        <v>64</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
         <v>81</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>68</v>
-      </c>
-      <c r="I7">
-        <v>64</v>
-      </c>
-      <c r="J7">
-        <v>30</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5517,23 +5519,23 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <f>(C7+D7)/2</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="O7">
-        <f>(E7+F7)/2</f>
+        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
       <c r="P7">
-        <f>(G7+H7)/2</f>
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
         <v>74.5</v>
       </c>
-      <c r="Q7">
-        <f>(I7+J7)/2</f>
-        <v>47</v>
-      </c>
       <c r="R7">
-        <f>SUM(C7:J7)</f>
+        <f t="shared" si="4"/>
         <v>534</v>
       </c>
     </row>
@@ -5542,28 +5544,28 @@
         <v>1966</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F8">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I8">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="J8">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -5572,24 +5574,24 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <f>(C8+D8)/2</f>
-        <v>62.5</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="O8">
-        <f>(E8+F8)/2</f>
+        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
       <c r="P8">
-        <f>(G8+H8)/2</f>
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="Q8">
-        <f>(I8+J8)/2</f>
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>74.5</v>
       </c>
       <c r="R8">
-        <f>SUM(C8:J8)</f>
-        <v>532</v>
+        <f t="shared" si="4"/>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -5597,10 +5599,10 @@
         <v>1967</v>
       </c>
       <c r="C9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>124</v>
@@ -5609,16 +5611,16 @@
         <v>41</v>
       </c>
       <c r="G9">
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <v>41</v>
+      </c>
+      <c r="I9">
         <v>57</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>91</v>
-      </c>
-      <c r="I9">
-        <v>53</v>
-      </c>
-      <c r="J9">
-        <v>41</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5627,23 +5629,23 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f>(C9+D9)/2</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="O9">
-        <f>(E9+F9)/2</f>
+        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
       <c r="P9">
-        <f>(G9+H9)/2</f>
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="Q9">
-        <f>(I9+J9)/2</f>
-        <v>47</v>
-      </c>
       <c r="R9">
-        <f>SUM(C9:J9)</f>
+        <f t="shared" si="4"/>
         <v>532</v>
       </c>
     </row>
@@ -5652,28 +5654,28 @@
         <v>1968</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F10">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H10">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="I10">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J10">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5682,24 +5684,24 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <f>(C10+D10)/2</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="O10">
-        <f>(E10+F10)/2</f>
+        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
       <c r="P10">
-        <f>(G10+H10)/2</f>
-        <v>74.5</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="Q10">
-        <f>(I10+J10)/2</f>
-        <v>47.5</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="R10">
-        <f>SUM(C10:J10)</f>
-        <v>535</v>
+        <f t="shared" si="4"/>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -5719,16 +5721,16 @@
         <v>46</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H11">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="I11">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J11">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5737,23 +5739,23 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <f>(C11+D11)/2</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="O11">
-        <f>(E11+F11)/2</f>
+        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
       <c r="P11">
-        <f>(G11+H11)/2</f>
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="Q11">
-        <f>(I11+J11)/2</f>
-        <v>47.5</v>
-      </c>
       <c r="R11">
-        <f>SUM(C11:J11)</f>
+        <f t="shared" si="4"/>
         <v>534</v>
       </c>
     </row>
@@ -5762,28 +5764,28 @@
         <v>1970</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F12">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H12">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I12">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J12">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5792,24 +5794,24 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f>(C12+D12)/2</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="O12">
-        <f>(E12+F12)/2</f>
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>82.5</v>
       </c>
       <c r="P12">
-        <f>(G12+H12)/2</f>
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
         <v>74.5</v>
       </c>
-      <c r="Q12">
-        <f>(I12+J12)/2</f>
-        <v>47.5</v>
-      </c>
       <c r="R12">
-        <f>SUM(C12:J12)</f>
-        <v>536</v>
+        <f t="shared" si="4"/>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -5829,16 +5831,16 @@
         <v>48</v>
       </c>
       <c r="G13">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>41</v>
+      </c>
+      <c r="I13">
         <v>68</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>81</v>
-      </c>
-      <c r="I13">
-        <v>54</v>
-      </c>
-      <c r="J13">
-        <v>41</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5847,23 +5849,23 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <f>(C13+D13)/2</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="O13">
-        <f>(E13+F13)/2</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="P13">
-        <f>(G13+H13)/2</f>
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
         <v>74.5</v>
       </c>
-      <c r="Q13">
-        <f>(I13+J13)/2</f>
-        <v>47.5</v>
-      </c>
       <c r="R13">
-        <f>SUM(C13:J13)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -5872,54 +5874,54 @@
         <v>1972</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F14">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G14">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I14">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J14">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <f>(C14+D14)/2</f>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="O14">
-        <f>(E14+F14)/2</f>
-        <v>83.5</v>
+        <f t="shared" si="1"/>
+        <v>82.5</v>
       </c>
       <c r="P14">
-        <f>(G14+H14)/2</f>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>47.5</v>
       </c>
       <c r="Q14">
-        <f>(I14+J14)/2</f>
-        <v>51</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="R14">
-        <f>SUM(C14:J14)</f>
-        <v>535</v>
+        <f t="shared" si="4"/>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -5939,16 +5941,16 @@
         <v>56</v>
       </c>
       <c r="G15">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H15">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I15">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J15">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -5957,23 +5959,23 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <f>(C15+D15)/2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="O15">
-        <f>(E15+F15)/2</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="P15">
-        <f>(G15+H15)/2</f>
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="Q15">
-        <f>(I15+J15)/2</f>
-        <v>51</v>
-      </c>
       <c r="R15">
-        <f>SUM(C15:J15)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -5982,28 +5984,28 @@
         <v>1974</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F16">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G16">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H16">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I16">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J16">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -6012,24 +6014,24 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <f>(C16+D16)/2</f>
-        <v>60.5</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="O16">
-        <f>(E16+F16)/2</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="P16">
-        <f>(G16+H16)/2</f>
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="Q16">
-        <f>(I16+J16)/2</f>
-        <v>50.5</v>
-      </c>
       <c r="R16">
-        <f>SUM(C16:J16)</f>
-        <v>534</v>
+        <f t="shared" si="4"/>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -6049,16 +6051,16 @@
         <v>47</v>
       </c>
       <c r="G17">
+        <v>66</v>
+      </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
+      <c r="I17">
         <v>84</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>61</v>
-      </c>
-      <c r="I17">
-        <v>66</v>
-      </c>
-      <c r="J17">
-        <v>35</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -6067,23 +6069,23 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <f>(C17+D17)/2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="O17">
-        <f>(E17+F17)/2</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="P17">
-        <f>(G17+H17)/2</f>
+        <f t="shared" si="2"/>
+        <v>50.5</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="Q17">
-        <f>(I17+J17)/2</f>
-        <v>50.5</v>
-      </c>
       <c r="R17">
-        <f>SUM(C17:J17)</f>
+        <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
@@ -6092,28 +6094,28 @@
         <v>1976</v>
       </c>
       <c r="C18">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G18">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I18">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="J18">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -6122,24 +6124,24 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <f>(C18+D18)/2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="O18">
-        <f>(E18+F18)/2</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="P18">
-        <f>(G18+H18)/2</f>
+        <f t="shared" si="2"/>
+        <v>50.5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="Q18">
-        <f>(I18+J18)/2</f>
-        <v>51</v>
-      </c>
       <c r="R18">
-        <f>SUM(C18:J18)</f>
-        <v>536</v>
+        <f t="shared" si="4"/>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -6159,16 +6161,16 @@
         <v>45</v>
       </c>
       <c r="G19">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H19">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I19">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J19">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -6177,23 +6179,23 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>(C19+D19)/2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="O19">
-        <f>(E19+F19)/2</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="P19">
-        <f>(G19+H19)/2</f>
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="Q19">
-        <f>(I19+J19)/2</f>
-        <v>51</v>
-      </c>
       <c r="R19">
-        <f>SUM(C19:J19)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6202,54 +6204,54 @@
         <v>1978</v>
       </c>
       <c r="C20">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H20">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I20">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="J20">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
       <c r="N20">
-        <f>(C20+D20)/2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="O20">
-        <f>(E20+F20)/2</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="P20">
-        <f>(G20+H20)/2</f>
+        <f t="shared" si="2"/>
+        <v>50.5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="Q20">
-        <f>(I20+J20)/2</f>
-        <v>51</v>
-      </c>
       <c r="R20">
-        <f>SUM(C20:J20)</f>
-        <v>536</v>
+        <f t="shared" si="4"/>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -6269,16 +6271,16 @@
         <v>47</v>
       </c>
       <c r="G21">
+        <v>58</v>
+      </c>
+      <c r="H21">
+        <v>44</v>
+      </c>
+      <c r="I21">
         <v>78</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>67</v>
-      </c>
-      <c r="I21">
-        <v>58</v>
-      </c>
-      <c r="J21">
-        <v>44</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -6287,23 +6289,23 @@
         <v>2</v>
       </c>
       <c r="N21">
-        <f>(C21+D21)/2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="O21">
-        <f>(E21+F21)/2</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="P21">
-        <f>(G21+H21)/2</f>
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="Q21">
-        <f>(I21+J21)/2</f>
-        <v>51</v>
-      </c>
       <c r="R21">
-        <f>SUM(C21:J21)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6312,53 +6314,53 @@
         <v>1980</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E22">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G22">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H22">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I22">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J22">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <f>(C22+D22)/2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="O22">
-        <f>(E22+F22)/2</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="P22">
-        <f>(G22+H22)/2</f>
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="Q22">
-        <f>(I22+J22)/2</f>
-        <v>51</v>
-      </c>
       <c r="R22">
-        <f>SUM(C22:J22)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6379,16 +6381,16 @@
         <v>60</v>
       </c>
       <c r="G23">
+        <v>48</v>
+      </c>
+      <c r="H23">
+        <v>54</v>
+      </c>
+      <c r="I23">
         <v>68</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>77</v>
-      </c>
-      <c r="I23">
-        <v>48</v>
-      </c>
-      <c r="J23">
-        <v>54</v>
       </c>
       <c r="L23">
         <v>3</v>
@@ -6397,23 +6399,23 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f>(C23+D23)/2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="O23">
-        <f>(E23+F23)/2</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="P23">
-        <f>(G23+H23)/2</f>
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="Q23">
-        <f>(I23+J23)/2</f>
-        <v>51</v>
-      </c>
       <c r="R23">
-        <f>SUM(C23:J23)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6422,28 +6424,28 @@
         <v>1982</v>
       </c>
       <c r="C24">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E24">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>48</v>
+      </c>
+      <c r="H24">
         <v>54</v>
       </c>
-      <c r="G24">
-        <v>72</v>
-      </c>
-      <c r="H24">
-        <v>65</v>
-      </c>
       <c r="I24">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J24">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -6452,23 +6454,23 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f>(C24+D24)/2</f>
-        <v>56.5</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="O24">
-        <f>(E24+F24)/2</f>
-        <v>87.5</v>
+        <f t="shared" si="1"/>
+        <v>83.5</v>
       </c>
       <c r="P24">
-        <f>(G24+H24)/2</f>
-        <v>68.5</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="Q24">
-        <f>(I24+J24)/2</f>
-        <v>55.5</v>
+        <f t="shared" si="3"/>
+        <v>72.5</v>
       </c>
       <c r="R24">
-        <f>SUM(C24:J24)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6489,16 +6491,16 @@
         <v>54</v>
       </c>
       <c r="G25">
+        <v>54</v>
+      </c>
+      <c r="H25">
+        <v>57</v>
+      </c>
+      <c r="I25">
         <v>72</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>65</v>
-      </c>
-      <c r="I25">
-        <v>54</v>
-      </c>
-      <c r="J25">
-        <v>57</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -6507,23 +6509,23 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <f>(C25+D25)/2</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="O25">
-        <f>(E25+F25)/2</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="P25">
-        <f>(G25+H25)/2</f>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="Q25">
-        <f>(I25+J25)/2</f>
-        <v>55.5</v>
-      </c>
       <c r="R25">
-        <f>SUM(C25:J25)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6532,28 +6534,28 @@
         <v>1984</v>
       </c>
       <c r="C26">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E26">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F26">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G26">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H26">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I26">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="J26">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -6562,23 +6564,23 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <f>(C26+D26)/2</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="O26">
-        <f>(E26+F26)/2</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="P26">
-        <f>(G26+H26)/2</f>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="Q26">
-        <f>(I26+J26)/2</f>
-        <v>55.5</v>
-      </c>
       <c r="R26">
-        <f>SUM(C26:J26)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6599,16 +6601,16 @@
         <v>63</v>
       </c>
       <c r="G27">
+        <v>52</v>
+      </c>
+      <c r="H27">
+        <v>59</v>
+      </c>
+      <c r="I27">
         <v>74</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>63</v>
-      </c>
-      <c r="I27">
-        <v>52</v>
-      </c>
-      <c r="J27">
-        <v>59</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -6617,23 +6619,23 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f>(C27+D27)/2</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="O27">
-        <f>(E27+F27)/2</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="P27">
-        <f>(G27+H27)/2</f>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="Q27">
-        <f>(I27+J27)/2</f>
-        <v>55.5</v>
-      </c>
       <c r="R27">
-        <f>SUM(C27:J27)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6642,28 +6644,28 @@
         <v>1986</v>
       </c>
       <c r="C28">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F28">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G28">
+        <v>52</v>
+      </c>
+      <c r="H28">
+        <v>59</v>
+      </c>
+      <c r="I28">
         <v>74</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>63</v>
-      </c>
-      <c r="I28">
-        <v>55</v>
-      </c>
-      <c r="J28">
-        <v>56</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -6672,23 +6674,23 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f>(C28+D28)/2</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="O28">
-        <f>(E28+F28)/2</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="P28">
-        <f>(G28+H28)/2</f>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="Q28">
-        <f>(I28+J28)/2</f>
-        <v>55.5</v>
-      </c>
       <c r="R28">
-        <f>SUM(C28:J28)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6709,16 +6711,16 @@
         <v>56</v>
       </c>
       <c r="G29">
+        <v>55</v>
+      </c>
+      <c r="H29">
+        <v>56</v>
+      </c>
+      <c r="I29">
         <v>74</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>63</v>
-      </c>
-      <c r="I29">
-        <v>55</v>
-      </c>
-      <c r="J29">
-        <v>56</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -6727,23 +6729,23 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <f>(C29+D29)/2</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="O29">
-        <f>(E29+F29)/2</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="P29">
-        <f>(G29+H29)/2</f>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="Q29">
-        <f>(I29+J29)/2</f>
-        <v>55.5</v>
-      </c>
       <c r="R29">
-        <f>SUM(C29:J29)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6752,28 +6754,28 @@
         <v>1988</v>
       </c>
       <c r="C30">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H30">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I30">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="J30">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L30">
         <v>3</v>
@@ -6782,23 +6784,23 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <f>(C30+D30)/2</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="O30">
-        <f>(E30+F30)/2</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="P30">
-        <f>(G30+H30)/2</f>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="Q30">
-        <f>(I30+J30)/2</f>
-        <v>55.5</v>
-      </c>
       <c r="R30">
-        <f>SUM(C30:J30)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6807,7 +6809,7 @@
         <v>1989</v>
       </c>
       <c r="C31">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>47</v>
@@ -6819,16 +6821,16 @@
         <v>58</v>
       </c>
       <c r="G31">
+        <v>55</v>
+      </c>
+      <c r="H31">
+        <v>56</v>
+      </c>
+      <c r="I31">
         <v>78</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>59</v>
-      </c>
-      <c r="I31">
-        <v>55</v>
-      </c>
-      <c r="J31">
-        <v>56</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -6837,24 +6839,24 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <f>(C31+D31)/2</f>
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
-      <c r="O31">
-        <f>(E31+F31)/2</f>
-        <v>87.5</v>
-      </c>
-      <c r="P31">
-        <f>(G31+H31)/2</f>
+      <c r="Q31">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="Q31">
-        <f>(I31+J31)/2</f>
-        <v>55.5</v>
-      </c>
       <c r="R31">
-        <f>SUM(C31:J31)</f>
-        <v>534</v>
+        <f t="shared" si="4"/>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
@@ -6862,28 +6864,28 @@
         <v>1990</v>
       </c>
       <c r="C32">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G32">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H32">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I32">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J32">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L32">
         <v>3</v>
@@ -6892,24 +6894,24 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f>(C32+D32)/2</f>
-        <v>56.5</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="O32">
-        <f>(E32+F32)/2</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="P32">
-        <f>(G32+H32)/2</f>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="Q32">
-        <f>(I32+J32)/2</f>
-        <v>55.5</v>
-      </c>
       <c r="R32">
-        <f>SUM(C32:J32)</f>
-        <v>536</v>
+        <f t="shared" si="4"/>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -6929,16 +6931,16 @@
         <v>57</v>
       </c>
       <c r="G33">
+        <v>58</v>
+      </c>
+      <c r="H33">
+        <v>53</v>
+      </c>
+      <c r="I33">
         <v>82</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>55</v>
-      </c>
-      <c r="I33">
-        <v>58</v>
-      </c>
-      <c r="J33">
-        <v>53</v>
       </c>
       <c r="L33">
         <v>3</v>
@@ -6947,23 +6949,23 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <f>(C33+D33)/2</f>
+        <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
       <c r="O33">
-        <f>(E33+F33)/2</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="P33">
-        <f>(G33+H33)/2</f>
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
-      <c r="Q33">
-        <f>(I33+J33)/2</f>
-        <v>55.5</v>
-      </c>
       <c r="R33">
-        <f>SUM(C33:J33)</f>
+        <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
@@ -6972,54 +6974,54 @@
         <v>1992</v>
       </c>
       <c r="C34">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F34">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G34">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H34">
         <v>52</v>
       </c>
       <c r="I34">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J34">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <f>(C34+D34)/2</f>
-        <v>53</v>
+        <f t="shared" ref="N34:N55" si="5">(C34+D34)/2</f>
+        <v>56.5</v>
       </c>
       <c r="O34">
-        <f>(E34+F34)/2</f>
-        <v>90.5</v>
+        <f t="shared" ref="O34:O55" si="6">(E34+F34)/2</f>
+        <v>87.5</v>
       </c>
       <c r="P34">
-        <f>(G34+H34)/2</f>
-        <v>63.5</v>
+        <f t="shared" ref="P34:P55" si="7">(G34+H34)/2</f>
+        <v>55.5</v>
       </c>
       <c r="Q34">
-        <f>(I34+J34)/2</f>
-        <v>59</v>
+        <f t="shared" ref="Q34:Q55" si="8">(I34+J34)/2</f>
+        <v>68</v>
       </c>
       <c r="R34">
-        <f>SUM(C34:J34)</f>
-        <v>532</v>
+        <f t="shared" ref="R34:R55" si="9">SUM(C34:J34)</f>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
@@ -7033,22 +7035,22 @@
         <v>45</v>
       </c>
       <c r="E35">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F35">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35">
+        <v>65</v>
+      </c>
+      <c r="H35">
+        <v>54</v>
+      </c>
+      <c r="I35">
         <v>76</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>53</v>
-      </c>
-      <c r="I35">
-        <v>65</v>
-      </c>
-      <c r="J35">
-        <v>54</v>
       </c>
       <c r="L35">
         <v>4</v>
@@ -7057,23 +7059,23 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f>(C35+D35)/2</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="O35">
-        <f>(E35+F35)/2</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="P35">
-        <f>(G35+H35)/2</f>
+        <f t="shared" si="7"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="Q35">
-        <f>(I35+J35)/2</f>
-        <v>59.5</v>
-      </c>
       <c r="R35">
-        <f>SUM(C35:J35)</f>
+        <f t="shared" si="9"/>
         <v>536</v>
       </c>
     </row>
@@ -7082,53 +7084,53 @@
         <v>1994</v>
       </c>
       <c r="C36">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G36">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H36">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I36">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="J36">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <f>(C36+D36)/2</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="O36">
-        <f>(E36+F36)/2</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="P36">
-        <f>(G36+H36)/2</f>
+        <f t="shared" si="7"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="Q36">
-        <f>(I36+J36)/2</f>
-        <v>59.5</v>
-      </c>
       <c r="R36">
-        <f>SUM(C36:J36)</f>
+        <f t="shared" si="9"/>
         <v>536</v>
       </c>
     </row>
@@ -7149,13 +7151,13 @@
         <v>100</v>
       </c>
       <c r="G37">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H37">
         <v>70</v>
       </c>
       <c r="I37">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J37">
         <v>70</v>
@@ -7167,24 +7169,24 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <f>(C37+D37)/2</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="O37">
-        <f>(E37+F37)/2</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="P37">
-        <f>(G37+H37)/2</f>
+        <f t="shared" si="7"/>
+        <v>58.5</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="Q37">
-        <f>(I37+J37)/2</f>
-        <v>59</v>
-      </c>
       <c r="R37">
-        <f>SUM(C37:J37)</f>
-        <v>535</v>
+        <f t="shared" si="9"/>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -7192,54 +7194,54 @@
         <v>1996</v>
       </c>
       <c r="C38">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E38">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F38">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G38">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H38">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I38">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J38">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <f>(C38+D38)/2</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="O38">
-        <f>(E38+F38)/2</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="P38">
-        <f>(G38+H38)/2</f>
-        <v>64.5</v>
+        <f t="shared" si="7"/>
+        <v>59.5</v>
       </c>
       <c r="Q38">
-        <f>(I38+J38)/2</f>
-        <v>59.5</v>
+        <f t="shared" si="8"/>
+        <v>64</v>
       </c>
       <c r="R38">
-        <f>SUM(C38:J38)</f>
-        <v>536</v>
+        <f t="shared" si="9"/>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -7259,16 +7261,16 @@
         <v>106</v>
       </c>
       <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>68</v>
+      </c>
+      <c r="I39">
         <v>63</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>66</v>
-      </c>
-      <c r="I39">
-        <v>50</v>
-      </c>
-      <c r="J39">
-        <v>67</v>
       </c>
       <c r="L39">
         <v>4</v>
@@ -7277,24 +7279,24 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f>(C39+D39)/2</f>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="O39">
-        <f>(E39+F39)/2</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="P39">
-        <f>(G39+H39)/2</f>
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="Q39">
-        <f>(I39+J39)/2</f>
-        <v>58.5</v>
-      </c>
       <c r="R39">
-        <f>SUM(C39:J39)</f>
-        <v>533</v>
+        <f t="shared" si="9"/>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -7302,25 +7304,25 @@
         <v>1998</v>
       </c>
       <c r="C40">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E40">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G40">
+        <v>51</v>
+      </c>
+      <c r="H40">
+        <v>68</v>
+      </c>
+      <c r="I40">
         <v>63</v>
-      </c>
-      <c r="H40">
-        <v>66</v>
-      </c>
-      <c r="I40">
-        <v>53</v>
       </c>
       <c r="J40">
         <v>66</v>
@@ -7332,23 +7334,23 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f>(C40+D40)/2</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="O40">
-        <f>(E40+F40)/2</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="P40">
-        <f>(G40+H40)/2</f>
+        <f t="shared" si="7"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="Q40">
-        <f>(I40+J40)/2</f>
-        <v>59.5</v>
-      </c>
       <c r="R40">
-        <f>SUM(C40:J40)</f>
+        <f t="shared" si="9"/>
         <v>536</v>
       </c>
     </row>
@@ -7369,13 +7371,13 @@
         <v>107</v>
       </c>
       <c r="G41">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H41">
         <v>66</v>
       </c>
       <c r="I41">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J41">
         <v>66</v>
@@ -7387,23 +7389,23 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <f>(C41+D41)/2</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="O41">
-        <f>(E41+F41)/2</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="P41">
-        <f>(G41+H41)/2</f>
+        <f t="shared" si="7"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="Q41">
-        <f>(I41+J41)/2</f>
-        <v>59.5</v>
-      </c>
       <c r="R41">
-        <f>SUM(C41:J41)</f>
+        <f t="shared" si="9"/>
         <v>536</v>
       </c>
     </row>
@@ -7412,53 +7414,53 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E42">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42">
         <v>105</v>
       </c>
       <c r="G42">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H42">
         <v>66</v>
       </c>
       <c r="I42">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J42">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <f>(C42+D42)/2</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="O42">
-        <f>(E42+F42)/2</f>
-        <v>91</v>
+        <f t="shared" si="6"/>
+        <v>90.5</v>
       </c>
       <c r="P42">
-        <f>(G42+H42)/2</f>
+        <f t="shared" si="7"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="Q42">
-        <f>(I42+J42)/2</f>
-        <v>59</v>
-      </c>
       <c r="R42">
-        <f>SUM(C42:J42)</f>
+        <f t="shared" si="9"/>
         <v>535</v>
       </c>
     </row>
@@ -7479,16 +7481,16 @@
         <v>106</v>
       </c>
       <c r="G43">
+        <v>60</v>
+      </c>
+      <c r="H43">
+        <v>59</v>
+      </c>
+      <c r="I43">
         <v>63</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>66</v>
-      </c>
-      <c r="I43">
-        <v>60</v>
-      </c>
-      <c r="J43">
-        <v>59</v>
       </c>
       <c r="L43">
         <v>3</v>
@@ -7497,23 +7499,23 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <f>(C43+D43)/2</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="O43">
-        <f>(E43+F43)/2</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="P43">
-        <f>(G43+H43)/2</f>
+        <f t="shared" si="7"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
-      <c r="Q43">
-        <f>(I43+J43)/2</f>
-        <v>59.5</v>
-      </c>
       <c r="R43">
-        <f>SUM(C43:J43)</f>
+        <f t="shared" si="9"/>
         <v>536</v>
       </c>
     </row>
@@ -7522,28 +7524,28 @@
         <v>2002</v>
       </c>
       <c r="C44">
+        <v>63</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>76</v>
+      </c>
+      <c r="F44">
+        <v>106</v>
+      </c>
+      <c r="G44">
         <v>59</v>
       </c>
-      <c r="D44">
-        <v>42</v>
-      </c>
-      <c r="E44">
-        <v>79</v>
-      </c>
-      <c r="F44">
-        <v>108</v>
-      </c>
-      <c r="G44">
-        <v>52</v>
-      </c>
       <c r="H44">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I44">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J44">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L44">
         <v>3</v>
@@ -7552,24 +7554,24 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <f>(C44+D44)/2</f>
-        <v>50.5</v>
+        <f t="shared" si="5"/>
+        <v>53</v>
       </c>
       <c r="O44">
-        <f>(E44+F44)/2</f>
-        <v>93.5</v>
+        <f t="shared" si="6"/>
+        <v>91</v>
       </c>
       <c r="P44">
-        <f>(G44+H44)/2</f>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>58.5</v>
       </c>
       <c r="Q44">
-        <f>(I44+J44)/2</f>
-        <v>62</v>
+        <f t="shared" si="8"/>
+        <v>63.5</v>
       </c>
       <c r="R44">
-        <f>SUM(C44:J44)</f>
-        <v>536</v>
+        <f t="shared" si="9"/>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -7589,16 +7591,16 @@
         <v>107</v>
       </c>
       <c r="G45">
+        <v>62</v>
+      </c>
+      <c r="H45">
+        <v>62</v>
+      </c>
+      <c r="I45">
         <v>52</v>
       </c>
-      <c r="H45">
-        <v>71</v>
-      </c>
-      <c r="I45">
-        <v>62</v>
-      </c>
       <c r="J45">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L45">
         <v>3</v>
@@ -7607,24 +7609,24 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <f>(C45+D45)/2</f>
+        <f t="shared" si="5"/>
         <v>50.5</v>
       </c>
       <c r="O45">
-        <f>(E45+F45)/2</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="P45">
-        <f>(G45+H45)/2</f>
-        <v>61.5</v>
+        <f t="shared" si="7"/>
+        <v>62</v>
       </c>
       <c r="Q45">
-        <f>(I45+J45)/2</f>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="R45">
-        <f>SUM(C45:J45)</f>
-        <v>534</v>
+        <f t="shared" si="9"/>
+        <v>535</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -7632,28 +7634,28 @@
         <v>2004</v>
       </c>
       <c r="C46">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E46">
+        <v>80</v>
+      </c>
+      <c r="F46">
+        <v>106</v>
+      </c>
+      <c r="G46">
+        <v>62</v>
+      </c>
+      <c r="H46">
+        <v>62</v>
+      </c>
+      <c r="I46">
+        <v>53</v>
+      </c>
+      <c r="J46">
         <v>70</v>
-      </c>
-      <c r="F46">
-        <v>117</v>
-      </c>
-      <c r="G46">
-        <v>53</v>
-      </c>
-      <c r="H46">
-        <v>71</v>
-      </c>
-      <c r="I46">
-        <v>63</v>
-      </c>
-      <c r="J46">
-        <v>60</v>
       </c>
       <c r="L46">
         <v>3</v>
@@ -7662,24 +7664,24 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <f>(C46+D46)/2</f>
+        <f t="shared" si="5"/>
         <v>50.5</v>
       </c>
       <c r="O46">
-        <f>(E46+F46)/2</f>
-        <v>93.5</v>
+        <f t="shared" si="6"/>
+        <v>93</v>
       </c>
       <c r="P46">
-        <f>(G46+H46)/2</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="Q46">
-        <f>(I46+J46)/2</f>
+        <f t="shared" si="8"/>
         <v>61.5</v>
       </c>
       <c r="R46">
-        <f>SUM(C46:J46)</f>
-        <v>535</v>
+        <f t="shared" si="9"/>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -7687,7 +7689,7 @@
         <v>2005</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47">
         <v>40</v>
@@ -7699,16 +7701,16 @@
         <v>117</v>
       </c>
       <c r="G47">
+        <v>64</v>
+      </c>
+      <c r="H47">
+        <v>59</v>
+      </c>
+      <c r="I47">
         <v>53</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>71</v>
-      </c>
-      <c r="I47">
-        <v>64</v>
-      </c>
-      <c r="J47">
-        <v>59</v>
       </c>
       <c r="L47">
         <v>3</v>
@@ -7717,24 +7719,24 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <f>(C47+D47)/2</f>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>50.5</v>
       </c>
       <c r="O47">
-        <f>(E47+F47)/2</f>
+        <f t="shared" si="6"/>
         <v>93.5</v>
       </c>
       <c r="P47">
-        <f>(G47+H47)/2</f>
+        <f t="shared" si="7"/>
+        <v>61.5</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="Q47">
-        <f>(I47+J47)/2</f>
-        <v>61.5</v>
-      </c>
       <c r="R47">
-        <f>SUM(C47:J47)</f>
-        <v>534</v>
+        <f t="shared" si="9"/>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -7742,16 +7744,16 @@
         <v>2006</v>
       </c>
       <c r="C48">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F48">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G48">
         <v>64</v>
@@ -7760,10 +7762,10 @@
         <v>60</v>
       </c>
       <c r="I48">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J48">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="L48">
         <v>3</v>
@@ -7772,24 +7774,24 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <f>(C48+D48)/2</f>
+        <f t="shared" si="5"/>
         <v>50.5</v>
       </c>
       <c r="O48">
-        <f>(E48+F48)/2</f>
-        <v>93.5</v>
+        <f t="shared" si="6"/>
+        <v>93</v>
       </c>
       <c r="P48">
-        <f>(G48+H48)/2</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="Q48">
-        <f>(I48+J48)/2</f>
-        <v>62</v>
+        <f t="shared" si="8"/>
+        <v>61.5</v>
       </c>
       <c r="R48">
-        <f>SUM(C48:J48)</f>
-        <v>536</v>
+        <f t="shared" si="9"/>
+        <v>534</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
@@ -7806,19 +7808,19 @@
         <v>77</v>
       </c>
       <c r="F49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G49">
+        <v>69</v>
+      </c>
+      <c r="H49">
+        <v>55</v>
+      </c>
+      <c r="I49">
         <v>63</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>59</v>
-      </c>
-      <c r="I49">
-        <v>69</v>
-      </c>
-      <c r="J49">
-        <v>55</v>
       </c>
       <c r="L49">
         <v>3</v>
@@ -7827,24 +7829,24 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <f>(C49+D49)/2</f>
+        <f t="shared" si="5"/>
         <v>50.5</v>
       </c>
       <c r="O49">
-        <f>(E49+F49)/2</f>
-        <v>92.5</v>
+        <f t="shared" si="6"/>
+        <v>93</v>
       </c>
       <c r="P49">
-        <f>(G49+H49)/2</f>
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
-      <c r="Q49">
-        <f>(I49+J49)/2</f>
-        <v>62</v>
-      </c>
       <c r="R49">
-        <f>SUM(C49:J49)</f>
-        <v>532</v>
+        <f t="shared" si="9"/>
+        <v>533</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
@@ -7852,54 +7854,54 @@
         <v>2008</v>
       </c>
       <c r="C50">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F50">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G50">
         <v>69</v>
       </c>
       <c r="H50">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I50">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J50">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <f>(C50+D50)/2</f>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>50.5</v>
       </c>
       <c r="O50">
-        <f>(E50+F50)/2</f>
-        <v>93.5</v>
+        <f t="shared" si="6"/>
+        <v>93</v>
       </c>
       <c r="P50">
-        <f>(G50+H50)/2</f>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>62</v>
       </c>
       <c r="Q50">
-        <f>(I50+J50)/2</f>
-        <v>62</v>
+        <f t="shared" si="8"/>
+        <v>61.5</v>
       </c>
       <c r="R50">
-        <f>SUM(C50:J50)</f>
-        <v>533</v>
+        <f t="shared" si="9"/>
+        <v>534</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
@@ -7913,22 +7915,22 @@
         <v>19</v>
       </c>
       <c r="E51">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F51">
         <v>103</v>
       </c>
       <c r="G51">
+        <v>79</v>
+      </c>
+      <c r="H51">
+        <v>45</v>
+      </c>
+      <c r="I51">
         <v>71</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>53</v>
-      </c>
-      <c r="I51">
-        <v>79</v>
-      </c>
-      <c r="J51">
-        <v>45</v>
       </c>
       <c r="L51">
         <v>5</v>
@@ -7937,24 +7939,24 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f>(C51+D51)/2</f>
+        <f t="shared" si="5"/>
         <v>50.5</v>
       </c>
       <c r="O51">
-        <f>(E51+F51)/2</f>
-        <v>93</v>
+        <f t="shared" si="6"/>
+        <v>93.5</v>
       </c>
       <c r="P51">
-        <f>(G51+H51)/2</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="Q51">
-        <f>(I51+J51)/2</f>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="R51">
-        <f>SUM(C51:J51)</f>
-        <v>535</v>
+        <f t="shared" si="9"/>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -7962,25 +7964,25 @@
         <v>2010</v>
       </c>
       <c r="C52">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F52">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="G52">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H52">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I52">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J52">
         <v>53</v>
@@ -7992,24 +7994,24 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <f>(C52+D52)/2</f>
+        <f t="shared" si="5"/>
         <v>50.5</v>
       </c>
       <c r="O52">
-        <f>(E52+F52)/2</f>
+        <f t="shared" si="6"/>
         <v>93.5</v>
       </c>
       <c r="P52">
-        <f>(G52+H52)/2</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="Q52">
-        <f>(I52+J52)/2</f>
-        <v>62</v>
+        <f t="shared" si="8"/>
+        <v>61.5</v>
       </c>
       <c r="R52">
-        <f>SUM(C52:J52)</f>
-        <v>536</v>
+        <f t="shared" si="9"/>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -8029,16 +8031,16 @@
         <v>126</v>
       </c>
       <c r="G53">
+        <v>70</v>
+      </c>
+      <c r="H53">
+        <v>53</v>
+      </c>
+      <c r="I53">
         <v>47</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>77</v>
-      </c>
-      <c r="I53">
-        <v>69</v>
-      </c>
-      <c r="J53">
-        <v>53</v>
       </c>
       <c r="L53">
         <v>5</v>
@@ -8047,24 +8049,24 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <f>(C53+D53)/2</f>
+        <f t="shared" si="5"/>
         <v>50.5</v>
       </c>
       <c r="O53">
-        <f>(E53+F53)/2</f>
+        <f t="shared" si="6"/>
         <v>93.5</v>
       </c>
       <c r="P53">
-        <f>(G53+H53)/2</f>
+        <f t="shared" si="7"/>
+        <v>61.5</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="Q53">
-        <f>(I53+J53)/2</f>
-        <v>61</v>
-      </c>
       <c r="R53">
-        <f>SUM(C53:J53)</f>
-        <v>534</v>
+        <f t="shared" si="9"/>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
@@ -8075,25 +8077,25 @@
         <v>66</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G54">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H54">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I54">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="J54">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="L54">
         <v>5</v>
@@ -8102,24 +8104,24 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <f>(C54+D54)/2</f>
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>50.5</v>
       </c>
       <c r="O54">
-        <f>(E54+F54)/2</f>
-        <v>96.5</v>
+        <f t="shared" si="6"/>
+        <v>93</v>
       </c>
       <c r="P54">
-        <f>(G54+H54)/2</f>
-        <v>58</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="Q54">
-        <f>(I54+J54)/2</f>
-        <v>64</v>
+        <f t="shared" si="8"/>
+        <v>61.5</v>
       </c>
       <c r="R54">
-        <f>SUM(C54:J54)</f>
-        <v>533</v>
+        <f t="shared" si="9"/>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -8133,22 +8135,22 @@
         <v>30</v>
       </c>
       <c r="E55">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F55">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G55">
+        <v>79</v>
+      </c>
+      <c r="H55">
+        <v>49</v>
+      </c>
+      <c r="I55">
         <v>47</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>71</v>
-      </c>
-      <c r="I55">
-        <v>79</v>
-      </c>
-      <c r="J55">
-        <v>49</v>
       </c>
       <c r="L55">
         <v>5</v>
@@ -8157,24 +8159,24 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <f>(C55+D55)/2</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="O55">
-        <f>(E55+F55)/2</f>
-        <v>95</v>
+        <f t="shared" si="6"/>
+        <v>96</v>
       </c>
       <c r="P55">
-        <f>(G55+H55)/2</f>
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="Q55">
-        <f>(I55+J55)/2</f>
-        <v>64</v>
-      </c>
       <c r="R55">
-        <f>SUM(C55:J55)</f>
-        <v>532</v>
+        <f t="shared" si="9"/>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -8186,7 +8188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/reps.xlsx
+++ b/reps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="0" windowWidth="11832" windowHeight="7488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-780" yWindow="0" windowWidth="11832" windowHeight="7488" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reps" sheetId="1" r:id="rId1"/>
@@ -644,10 +644,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>reps!$A$2:$A$55</c:f>
+              <c:f>reps!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1960</c:v>
                 </c:pt>
@@ -809,16 +809,28 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reps!$C$2:$C$55</c:f>
+              <c:f>reps!$B$2:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>66</c:v>
                 </c:pt>
@@ -980,6 +992,18 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,10 +1028,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>reps!$A$2:$A$55</c:f>
+              <c:f>reps!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1960</c:v>
                 </c:pt>
@@ -1169,16 +1193,28 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reps!$D$2:$D$55</c:f>
+              <c:f>reps!$C$2:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>67</c:v>
                 </c:pt>
@@ -1340,6 +1376,18 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,10 +1436,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>reps!$N$2:$N$55</c:f>
+              <c:f>reps!$M$2:$M$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>66.5</c:v>
                 </c:pt>
@@ -1553,6 +1601,18 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1662,10 +1722,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>reps!$A$2:$A$55</c:f>
+              <c:f>reps!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1960</c:v>
                 </c:pt>
@@ -1827,16 +1887,28 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reps!$E$2:$E$55</c:f>
+              <c:f>reps!$D$2:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
@@ -1998,6 +2070,18 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,10 +2106,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>reps!$A$2:$A$55</c:f>
+              <c:f>reps!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1960</c:v>
                 </c:pt>
@@ -2187,16 +2271,28 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reps!$F$2:$F$55</c:f>
+              <c:f>reps!$E$2:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -2358,6 +2454,18 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2406,10 +2514,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>reps!$O$2:$O$56</c:f>
+              <c:f>reps!$N$2:$N$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>83</c:v>
                 </c:pt>
@@ -2571,6 +2679,18 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,10 +2800,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>reps!$A$2:$A$55</c:f>
+              <c:f>reps!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1960</c:v>
                 </c:pt>
@@ -2845,177 +2965,201 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reps!$G$2:$G$55</c:f>
+              <c:f>reps!$F$2:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>53</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>52</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>51</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>53</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>69</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>79</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>78</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>70</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>69</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>79</c:v>
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3040,10 +3184,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>reps!$A$2:$A$55</c:f>
+              <c:f>reps!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1960</c:v>
                 </c:pt>
@@ -3205,132 +3349,144 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reps!$H$2:$H$55</c:f>
+              <c:f>reps!$G$2:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>57</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>57</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
                 <c:pt idx="31">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>54</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>54</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>70</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>68</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>66</c:v>
@@ -3339,43 +3495,55 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>55</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>45</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>53</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>49</c:v>
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,171 +3592,183 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>reps!$P$2:$P$55</c:f>
+              <c:f>reps!$O$2:$O$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.5</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.5</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55.5</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>59.5</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>59.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>58.5</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>61.5</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>62</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>61.5</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>61</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>64</c:v>
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,10 +3878,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>reps!$A$2:$A$55</c:f>
+              <c:f>reps!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1960</c:v>
                 </c:pt>
@@ -3863,177 +4043,201 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reps!$I$2:$I$55</c:f>
+              <c:f>reps!$H$2:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>81</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>59</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>63</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>63</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>63</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>63</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>52</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>63</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>64</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>71</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>47</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>47</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>47</c:v>
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4058,10 +4262,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>reps!$A$2:$A$55</c:f>
+              <c:f>reps!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1960</c:v>
                 </c:pt>
@@ -4223,132 +4427,144 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>reps!$J$2:$J$55</c:f>
+              <c:f>reps!$I$2:$I$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>77</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>77</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>65</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>69</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>66</c:v>
@@ -4357,43 +4573,55 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>66</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>68</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>72</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>70</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>71</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>76</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>71</c:v>
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4442,171 +4670,183 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>reps!$Q$2:$Q$55</c:f>
+              <c:f>reps!$P$2:$P$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>72.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>68</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>64.5</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>64</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>64.5</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>64.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>63.5</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>61.5</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>61.5</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>61.5</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>61.5</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>62</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.5</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>63.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5151,3032 +5391,3252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56:Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1960</v>
       </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
       <c r="C2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="E2">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="G2">
+        <v>74</v>
+      </c>
+      <c r="H2">
         <v>53</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>31</v>
       </c>
-      <c r="I2">
-        <v>78</v>
-      </c>
       <c r="J2">
-        <v>74</v>
-      </c>
-      <c r="L2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="M2">
-        <v>1</v>
+        <f t="shared" ref="M2:M33" si="0">(B2+C2)/2</f>
+        <v>66.5</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="0">(C2+D2)/2</f>
-        <v>66.5</v>
+        <f t="shared" ref="N2:N33" si="1">(D2+E2)/2</f>
+        <v>83</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O33" si="1">(E2+F2)/2</f>
-        <v>83</v>
+        <f t="shared" ref="O2:O33" si="2">(F2+G2)/2</f>
+        <v>76</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P33" si="2">(G2+H2)/2</f>
+        <f t="shared" ref="P2:P33" si="3">(H2+I2)/2</f>
         <v>42</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q33" si="3">(I2+J2)/2</f>
-        <v>76</v>
-      </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R33" si="4">SUM(C2:J2)</f>
+        <f t="shared" ref="Q2:Q33" si="4">SUM(B2:I2)</f>
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1961</v>
       </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
       <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>147</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
         <v>63</v>
       </c>
-      <c r="D3">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <v>147</v>
-      </c>
-      <c r="F3">
-        <v>19</v>
-      </c>
       <c r="G3">
+        <v>89</v>
+      </c>
+      <c r="H3">
         <v>52</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>32</v>
       </c>
-      <c r="I3">
-        <v>63</v>
-      </c>
       <c r="J3">
-        <v>89</v>
-      </c>
-      <c r="L3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
       <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
         <f t="shared" si="0"/>
         <v>66.5</v>
       </c>
-      <c r="O3">
+      <c r="N3">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="O3">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
       <c r="P3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="R3">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1962</v>
       </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
       <c r="C4">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="E4">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G4">
+        <v>89</v>
+      </c>
+      <c r="H4">
         <v>50</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>34</v>
       </c>
-      <c r="I4">
-        <v>63</v>
-      </c>
       <c r="J4">
-        <v>89</v>
-      </c>
-      <c r="L4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
         <f t="shared" si="0"/>
         <v>66.5</v>
       </c>
-      <c r="O4">
+      <c r="N4">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
       <c r="P4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="R4">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1963</v>
       </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
       <c r="C5">
         <v>63</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="E5">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="G5">
+        <v>87</v>
+      </c>
+      <c r="H5">
         <v>56</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>38</v>
       </c>
-      <c r="I5">
-        <v>62</v>
-      </c>
       <c r="J5">
-        <v>87</v>
-      </c>
-      <c r="L5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="O5">
+      <c r="N5">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>74.5</v>
-      </c>
-      <c r="R5">
         <f t="shared" si="4"/>
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1964</v>
       </c>
+      <c r="B6">
+        <v>63</v>
+      </c>
       <c r="C6">
         <v>63</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="E6">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="G6">
+        <v>87</v>
+      </c>
+      <c r="H6">
         <v>57</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>37</v>
       </c>
-      <c r="I6">
-        <v>62</v>
-      </c>
       <c r="J6">
-        <v>87</v>
-      </c>
-      <c r="L6">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="O6">
+      <c r="N6">
         <f t="shared" si="1"/>
         <v>78.5</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
       <c r="P6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>74.5</v>
-      </c>
-      <c r="R6">
         <f t="shared" si="4"/>
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1965</v>
       </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
       <c r="C7">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="E7">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G7">
+        <v>68</v>
+      </c>
+      <c r="H7">
         <v>64</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>30</v>
       </c>
-      <c r="I7">
-        <v>81</v>
-      </c>
       <c r="J7">
-        <v>68</v>
-      </c>
-      <c r="L7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="O7">
+      <c r="N7">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>74.5</v>
-      </c>
-      <c r="R7">
         <f t="shared" si="4"/>
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1966</v>
       </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
       <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>138</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
         <v>80</v>
       </c>
-      <c r="D8">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>138</v>
-      </c>
-      <c r="F8">
-        <v>27</v>
-      </c>
       <c r="G8">
+        <v>69</v>
+      </c>
+      <c r="H8">
         <v>64</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>30</v>
       </c>
-      <c r="I8">
-        <v>80</v>
-      </c>
       <c r="J8">
-        <v>69</v>
-      </c>
-      <c r="L8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="O8">
+      <c r="N8">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>74.5</v>
-      </c>
-      <c r="R8">
         <f t="shared" si="4"/>
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1967</v>
       </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
       <c r="C9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="E9">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="F9">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>91</v>
+      </c>
+      <c r="H9">
+        <v>53</v>
+      </c>
+      <c r="I9">
         <v>41</v>
       </c>
-      <c r="G9">
-        <v>53</v>
-      </c>
-      <c r="H9">
-        <v>41</v>
-      </c>
-      <c r="I9">
-        <v>57</v>
-      </c>
       <c r="J9">
-        <v>91</v>
-      </c>
-      <c r="L9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="O9">
+      <c r="N9">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
       <c r="P9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="R9">
         <f t="shared" si="4"/>
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1968</v>
       </c>
+      <c r="B10">
+        <v>74</v>
+      </c>
       <c r="C10">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="E10">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G10">
+        <v>91</v>
+      </c>
+      <c r="H10">
         <v>52</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>42</v>
       </c>
-      <c r="I10">
-        <v>57</v>
-      </c>
       <c r="J10">
-        <v>91</v>
-      </c>
-      <c r="L10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
       <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="O10">
+      <c r="N10">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="R10">
         <f t="shared" si="4"/>
         <v>532</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1969</v>
       </c>
+      <c r="B11">
+        <v>72</v>
+      </c>
       <c r="C11">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E11">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="F11">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G11">
+        <v>89</v>
+      </c>
+      <c r="H11">
         <v>51</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>44</v>
       </c>
-      <c r="I11">
-        <v>59</v>
-      </c>
       <c r="J11">
-        <v>89</v>
-      </c>
-      <c r="L11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="O11">
+      <c r="N11">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
       <c r="P11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="R11">
         <f t="shared" si="4"/>
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1970</v>
       </c>
+      <c r="B12">
+        <v>72</v>
+      </c>
       <c r="C12">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E12">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="F12">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G12">
+        <v>88</v>
+      </c>
+      <c r="H12">
         <v>51</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>44</v>
       </c>
-      <c r="I12">
-        <v>61</v>
-      </c>
       <c r="J12">
-        <v>88</v>
-      </c>
-      <c r="L12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="O12">
+      <c r="N12">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>74.5</v>
-      </c>
-      <c r="R12">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1971</v>
       </c>
+      <c r="B13">
+        <v>71</v>
+      </c>
       <c r="C13">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="E13">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="F13">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G13">
+        <v>81</v>
+      </c>
+      <c r="H13">
         <v>54</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>41</v>
       </c>
-      <c r="I13">
-        <v>68</v>
-      </c>
       <c r="J13">
-        <v>81</v>
-      </c>
-      <c r="L13">
         <v>0</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="O13">
+      <c r="N13">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>74.5</v>
-      </c>
-      <c r="R13">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1972</v>
       </c>
+      <c r="B14">
+        <v>71</v>
+      </c>
       <c r="C14">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E14">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="F14">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G14">
+        <v>81</v>
+      </c>
+      <c r="H14">
         <v>54</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>41</v>
       </c>
-      <c r="I14">
-        <v>67</v>
-      </c>
       <c r="J14">
-        <v>81</v>
-      </c>
-      <c r="L14">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="O14">
+      <c r="N14">
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="R14">
         <f t="shared" si="4"/>
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1973</v>
       </c>
+      <c r="B15">
+        <v>66</v>
+      </c>
       <c r="C15">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D15">
+        <v>111</v>
+      </c>
+      <c r="E15">
         <v>56</v>
       </c>
-      <c r="E15">
-        <v>111</v>
-      </c>
       <c r="F15">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G15">
+        <v>76</v>
+      </c>
+      <c r="H15">
         <v>57</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>45</v>
       </c>
-      <c r="I15">
-        <v>69</v>
-      </c>
       <c r="J15">
-        <v>76</v>
-      </c>
-      <c r="L15">
         <v>2</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O15">
+      <c r="N15">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R15">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1974</v>
       </c>
+      <c r="B16">
+        <v>66</v>
+      </c>
       <c r="C16">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D16">
+        <v>112</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16">
         <v>56</v>
       </c>
-      <c r="E16">
-        <v>112</v>
-      </c>
-      <c r="F16">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>56</v>
-      </c>
-      <c r="H16">
+      <c r="I16">
         <v>46</v>
       </c>
-      <c r="I16">
-        <v>70</v>
-      </c>
       <c r="J16">
-        <v>75</v>
-      </c>
-      <c r="L16">
         <v>2</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O16">
+      <c r="N16">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R16">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1975</v>
       </c>
+      <c r="B17">
+        <v>81</v>
+      </c>
       <c r="C17">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="E17">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="F17">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="G17">
+        <v>61</v>
+      </c>
+      <c r="H17">
         <v>66</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>35</v>
       </c>
-      <c r="I17">
-        <v>84</v>
-      </c>
       <c r="J17">
-        <v>61</v>
-      </c>
-      <c r="L17">
         <v>2</v>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O17">
+      <c r="N17">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R17">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1976</v>
       </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
       <c r="C18">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="E18">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="F18">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G18">
+        <v>60</v>
+      </c>
+      <c r="H18">
         <v>66</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>35</v>
       </c>
-      <c r="I18">
-        <v>85</v>
-      </c>
       <c r="J18">
-        <v>60</v>
-      </c>
-      <c r="L18">
         <v>2</v>
       </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O18">
+      <c r="N18">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R18">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1977</v>
       </c>
+      <c r="B19">
+        <v>82</v>
+      </c>
       <c r="C19">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="E19">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F19">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G19">
+        <v>62</v>
+      </c>
+      <c r="H19">
         <v>64</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>38</v>
       </c>
-      <c r="I19">
-        <v>83</v>
-      </c>
       <c r="J19">
-        <v>62</v>
-      </c>
-      <c r="L19">
         <v>2</v>
       </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O19">
+      <c r="N19">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R19">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1978</v>
       </c>
+      <c r="B20">
+        <v>82</v>
+      </c>
       <c r="C20">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="E20">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G20">
+        <v>64</v>
+      </c>
+      <c r="H20">
         <v>63</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>38</v>
       </c>
-      <c r="I20">
-        <v>81</v>
-      </c>
       <c r="J20">
-        <v>64</v>
-      </c>
-      <c r="L20">
         <v>2</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O20">
+      <c r="N20">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R20">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1979</v>
       </c>
+      <c r="B21">
+        <v>79</v>
+      </c>
       <c r="C21">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="E21">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="F21">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G21">
+        <v>67</v>
+      </c>
+      <c r="H21">
         <v>58</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>44</v>
       </c>
-      <c r="I21">
-        <v>78</v>
-      </c>
       <c r="J21">
-        <v>67</v>
-      </c>
-      <c r="L21">
         <v>1</v>
       </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
       <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O21">
+      <c r="N21">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R21">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1980</v>
       </c>
+      <c r="B22">
+        <v>78</v>
+      </c>
       <c r="C22">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="E22">
+        <v>47</v>
+      </c>
+      <c r="F22">
         <v>78</v>
       </c>
-      <c r="D22">
+      <c r="G22">
+        <v>67</v>
+      </c>
+      <c r="H22">
+        <v>58</v>
+      </c>
+      <c r="I22">
         <v>44</v>
       </c>
-      <c r="E22">
-        <v>120</v>
-      </c>
-      <c r="F22">
-        <v>47</v>
-      </c>
-      <c r="G22">
-        <v>58</v>
-      </c>
-      <c r="H22">
-        <v>44</v>
-      </c>
-      <c r="I22">
-        <v>78</v>
-      </c>
       <c r="J22">
-        <v>67</v>
-      </c>
-      <c r="L22">
         <v>1</v>
       </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
       <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O22">
+      <c r="N22">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R22">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1981</v>
       </c>
+      <c r="B23">
+        <v>66</v>
+      </c>
       <c r="C23">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E23">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="F23">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G23">
+        <v>77</v>
+      </c>
+      <c r="H23">
         <v>48</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>54</v>
       </c>
-      <c r="I23">
-        <v>68</v>
-      </c>
       <c r="J23">
-        <v>77</v>
-      </c>
-      <c r="L23">
         <v>3</v>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
       <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O23">
+      <c r="N23">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R23">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1982</v>
       </c>
+      <c r="B24">
+        <v>66</v>
+      </c>
       <c r="C24">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E24">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="F24">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G24">
+        <v>77</v>
+      </c>
+      <c r="H24">
         <v>48</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>54</v>
       </c>
-      <c r="I24">
-        <v>68</v>
-      </c>
       <c r="J24">
-        <v>77</v>
-      </c>
-      <c r="L24">
         <v>3</v>
       </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O24">
+      <c r="N24">
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="R24">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1983</v>
       </c>
+      <c r="B25">
+        <v>67</v>
+      </c>
       <c r="C25">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="E25">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F25">
+        <v>72</v>
+      </c>
+      <c r="G25">
+        <v>65</v>
+      </c>
+      <c r="H25">
         <v>54</v>
       </c>
-      <c r="G25">
-        <v>54</v>
-      </c>
-      <c r="H25">
+      <c r="I25">
         <v>57</v>
       </c>
-      <c r="I25">
-        <v>72</v>
-      </c>
       <c r="J25">
-        <v>65</v>
-      </c>
-      <c r="L25">
         <v>3</v>
       </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
       <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="O25">
+      <c r="N25">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="R25">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1984</v>
       </c>
+      <c r="B26">
+        <v>67</v>
+      </c>
       <c r="C26">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="E26">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F26">
+        <v>72</v>
+      </c>
+      <c r="G26">
+        <v>65</v>
+      </c>
+      <c r="H26">
         <v>54</v>
       </c>
-      <c r="G26">
-        <v>54</v>
-      </c>
-      <c r="H26">
+      <c r="I26">
         <v>57</v>
       </c>
-      <c r="I26">
-        <v>72</v>
-      </c>
       <c r="J26">
-        <v>65</v>
-      </c>
-      <c r="L26">
         <v>3</v>
       </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
       <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="O26">
+      <c r="N26">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="R26">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1985</v>
       </c>
+      <c r="B27">
+        <v>63</v>
+      </c>
       <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>112</v>
+      </c>
+      <c r="E27">
         <v>63</v>
       </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27">
-        <v>112</v>
-      </c>
       <c r="F27">
+        <v>74</v>
+      </c>
+      <c r="G27">
         <v>63</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>52</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>59</v>
       </c>
-      <c r="I27">
-        <v>74</v>
-      </c>
       <c r="J27">
-        <v>63</v>
-      </c>
-      <c r="L27">
         <v>3</v>
       </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
       <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="O27">
+      <c r="N27">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
       <c r="P27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="R27">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1986</v>
       </c>
+      <c r="B28">
+        <v>63</v>
+      </c>
       <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>113</v>
+      </c>
+      <c r="E28">
+        <v>62</v>
+      </c>
+      <c r="F28">
+        <v>74</v>
+      </c>
+      <c r="G28">
         <v>63</v>
       </c>
-      <c r="D28">
-        <v>50</v>
-      </c>
-      <c r="E28">
-        <v>113</v>
-      </c>
-      <c r="F28">
-        <v>62</v>
-      </c>
-      <c r="G28">
+      <c r="H28">
         <v>52</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>59</v>
       </c>
-      <c r="I28">
-        <v>74</v>
-      </c>
       <c r="J28">
-        <v>63</v>
-      </c>
-      <c r="L28">
         <v>3</v>
       </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
       <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="O28">
+      <c r="N28">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
       <c r="P28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="R28">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1987</v>
       </c>
+      <c r="B29">
+        <v>64</v>
+      </c>
       <c r="C29">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="E29">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="F29">
+        <v>74</v>
+      </c>
+      <c r="G29">
+        <v>63</v>
+      </c>
+      <c r="H29">
+        <v>55</v>
+      </c>
+      <c r="I29">
         <v>56</v>
       </c>
-      <c r="G29">
-        <v>55</v>
-      </c>
-      <c r="H29">
-        <v>56</v>
-      </c>
-      <c r="I29">
-        <v>74</v>
-      </c>
       <c r="J29">
-        <v>63</v>
-      </c>
-      <c r="L29">
         <v>3</v>
       </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
       <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="O29">
+      <c r="N29">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="R29">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1988</v>
       </c>
+      <c r="B30">
+        <v>64</v>
+      </c>
       <c r="C30">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="E30">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="F30">
+        <v>74</v>
+      </c>
+      <c r="G30">
+        <v>63</v>
+      </c>
+      <c r="H30">
+        <v>55</v>
+      </c>
+      <c r="I30">
         <v>56</v>
       </c>
-      <c r="G30">
-        <v>55</v>
-      </c>
-      <c r="H30">
-        <v>56</v>
-      </c>
-      <c r="I30">
-        <v>74</v>
-      </c>
       <c r="J30">
-        <v>63</v>
-      </c>
-      <c r="L30">
         <v>3</v>
       </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
       <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="O30">
+      <c r="N30">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
       <c r="P30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="R30">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1989</v>
       </c>
+      <c r="B31">
+        <v>65</v>
+      </c>
       <c r="C31">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E31">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="F31">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G31">
+        <v>59</v>
+      </c>
+      <c r="H31">
         <v>55</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>56</v>
       </c>
-      <c r="I31">
-        <v>78</v>
-      </c>
       <c r="J31">
-        <v>59</v>
-      </c>
-      <c r="L31">
         <v>3</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
       <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="O31">
+      <c r="N31">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="R31">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1990</v>
       </c>
+      <c r="B32">
+        <v>65</v>
+      </c>
       <c r="C32">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="E32">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="F32">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G32">
+        <v>59</v>
+      </c>
+      <c r="H32">
         <v>55</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>56</v>
       </c>
-      <c r="I32">
-        <v>78</v>
-      </c>
       <c r="J32">
-        <v>59</v>
-      </c>
-      <c r="L32">
         <v>3</v>
       </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
       <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="O32">
+      <c r="N32">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="R32">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1991</v>
       </c>
+      <c r="B33">
+        <v>67</v>
+      </c>
       <c r="C33">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="E33">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="F33">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G33">
+        <v>55</v>
+      </c>
+      <c r="H33">
         <v>58</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>53</v>
       </c>
-      <c r="I33">
-        <v>82</v>
-      </c>
       <c r="J33">
-        <v>55</v>
-      </c>
-      <c r="L33">
         <v>3</v>
       </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
       <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="O33">
+      <c r="N33">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="R33">
         <f t="shared" si="4"/>
         <v>536</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1992</v>
       </c>
+      <c r="B34">
+        <v>67</v>
+      </c>
       <c r="C34">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="E34">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="F34">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G34">
+        <v>55</v>
+      </c>
+      <c r="H34">
         <v>59</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>52</v>
       </c>
-      <c r="I34">
-        <v>81</v>
-      </c>
       <c r="J34">
-        <v>55</v>
-      </c>
-      <c r="L34">
         <v>3</v>
       </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
       <c r="M34">
-        <v>1</v>
+        <f t="shared" ref="M34:M55" si="5">(B34+C34)/2</f>
+        <v>56.5</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N55" si="5">(C34+D34)/2</f>
-        <v>56.5</v>
+        <f t="shared" ref="N34:N55" si="6">(D34+E34)/2</f>
+        <v>87.5</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O55" si="6">(E34+F34)/2</f>
-        <v>87.5</v>
+        <f t="shared" ref="O34:O55" si="7">(F34+G34)/2</f>
+        <v>68</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P55" si="7">(G34+H34)/2</f>
+        <f t="shared" ref="P34:P55" si="8">(H34+I34)/2</f>
         <v>55.5</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q55" si="8">(I34+J34)/2</f>
-        <v>68</v>
-      </c>
-      <c r="R34">
-        <f t="shared" ref="R34:R55" si="9">SUM(C34:J34)</f>
+        <f t="shared" ref="Q34:Q55" si="9">SUM(B34:I34)</f>
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1993</v>
       </c>
+      <c r="B35">
+        <v>61</v>
+      </c>
       <c r="C35">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E35">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F35">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G35">
+        <v>53</v>
+      </c>
+      <c r="H35">
         <v>65</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>54</v>
       </c>
-      <c r="I35">
-        <v>76</v>
-      </c>
       <c r="J35">
-        <v>53</v>
-      </c>
-      <c r="L35">
         <v>4</v>
       </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
       <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="O35">
+      <c r="N35">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>64.5</v>
+      </c>
       <c r="P35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="8"/>
-        <v>64.5</v>
-      </c>
-      <c r="R35">
         <f t="shared" si="9"/>
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1994</v>
       </c>
+      <c r="B36">
+        <v>61</v>
+      </c>
       <c r="C36">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E36">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F36">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36">
+        <v>53</v>
+      </c>
+      <c r="H36">
         <v>65</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>54</v>
       </c>
-      <c r="I36">
-        <v>76</v>
-      </c>
       <c r="J36">
-        <v>53</v>
-      </c>
-      <c r="L36">
         <v>4</v>
       </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
       <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="O36">
+      <c r="N36">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>64.5</v>
+      </c>
       <c r="P36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="8"/>
-        <v>64.5</v>
-      </c>
-      <c r="R36">
         <f t="shared" si="9"/>
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1995</v>
       </c>
+      <c r="B37">
+        <v>56</v>
+      </c>
       <c r="C37">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E37">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="H37">
         <v>47</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>70</v>
       </c>
-      <c r="I37">
-        <v>59</v>
-      </c>
       <c r="J37">
-        <v>70</v>
-      </c>
-      <c r="L37">
         <v>3</v>
       </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
       <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="O37">
+      <c r="N37">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>64.5</v>
+      </c>
       <c r="P37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="8"/>
-        <v>64.5</v>
-      </c>
-      <c r="R37">
         <f t="shared" si="9"/>
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1996</v>
       </c>
+      <c r="B38">
+        <v>56</v>
+      </c>
       <c r="C38">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E38">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G38">
+        <v>69</v>
+      </c>
+      <c r="H38">
         <v>49</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>70</v>
       </c>
-      <c r="I38">
-        <v>59</v>
-      </c>
       <c r="J38">
-        <v>69</v>
-      </c>
-      <c r="L38">
         <v>3</v>
       </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
       <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="O38">
+      <c r="N38">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
       <c r="P38">
+        <f t="shared" si="8"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1997</v>
+      </c>
+      <c r="B39">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>76</v>
+      </c>
+      <c r="E39">
+        <v>106</v>
+      </c>
+      <c r="F39">
+        <v>63</v>
+      </c>
+      <c r="G39">
+        <v>66</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <v>68</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="7"/>
+        <v>64.5</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="9"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1998</v>
+      </c>
+      <c r="B40">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>76</v>
+      </c>
+      <c r="E40">
+        <v>106</v>
+      </c>
+      <c r="F40">
+        <v>63</v>
+      </c>
+      <c r="G40">
+        <v>66</v>
+      </c>
+      <c r="H40">
+        <v>51</v>
+      </c>
+      <c r="I40">
+        <v>68</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>64.5</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
-      <c r="Q38">
+      <c r="Q40">
+        <f t="shared" si="9"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1999</v>
+      </c>
+      <c r="B41">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>75</v>
+      </c>
+      <c r="E41">
+        <v>107</v>
+      </c>
+      <c r="F41">
+        <v>63</v>
+      </c>
+      <c r="G41">
+        <v>66</v>
+      </c>
+      <c r="H41">
+        <v>53</v>
+      </c>
+      <c r="I41">
+        <v>66</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>64.5</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="9"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2000</v>
+      </c>
+      <c r="B42">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>76</v>
+      </c>
+      <c r="E42">
+        <v>105</v>
+      </c>
+      <c r="F42">
+        <v>63</v>
+      </c>
+      <c r="G42">
+        <v>66</v>
+      </c>
+      <c r="H42">
+        <v>53</v>
+      </c>
+      <c r="I42">
+        <v>66</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>90.5</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>64.5</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="9"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2001</v>
+      </c>
+      <c r="B43">
+        <v>63</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>76</v>
+      </c>
+      <c r="E43">
+        <v>106</v>
+      </c>
+      <c r="F43">
+        <v>63</v>
+      </c>
+      <c r="G43">
+        <v>66</v>
+      </c>
+      <c r="H43">
+        <v>60</v>
+      </c>
+      <c r="I43">
+        <v>59</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>64.5</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>59.5</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="9"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2002</v>
+      </c>
+      <c r="B44">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>76</v>
+      </c>
+      <c r="E44">
+        <v>106</v>
+      </c>
+      <c r="F44">
+        <v>59</v>
+      </c>
+      <c r="G44">
+        <v>68</v>
+      </c>
+      <c r="H44">
+        <v>59</v>
+      </c>
+      <c r="I44">
+        <v>58</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>63.5</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>58.5</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="9"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2003</v>
+      </c>
+      <c r="B45">
+        <v>59</v>
+      </c>
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>79</v>
+      </c>
+      <c r="E45">
+        <v>107</v>
+      </c>
+      <c r="F45">
+        <v>52</v>
+      </c>
+      <c r="G45">
+        <v>72</v>
+      </c>
+      <c r="H45">
+        <v>62</v>
+      </c>
+      <c r="I45">
+        <v>62</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="9"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2004</v>
+      </c>
+      <c r="B46">
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>42</v>
+      </c>
+      <c r="D46">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <v>106</v>
+      </c>
+      <c r="F46">
+        <v>53</v>
+      </c>
+      <c r="G46">
+        <v>70</v>
+      </c>
+      <c r="H46">
+        <v>62</v>
+      </c>
+      <c r="I46">
+        <v>62</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>61.5</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="9"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2005</v>
+      </c>
+      <c r="B47">
+        <v>61</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <v>117</v>
+      </c>
+      <c r="F47">
+        <v>53</v>
+      </c>
+      <c r="G47">
+        <v>71</v>
+      </c>
+      <c r="H47">
+        <v>64</v>
+      </c>
+      <c r="I47">
+        <v>59</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>93.5</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>61.5</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="9"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2006</v>
+      </c>
+      <c r="B48">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>70</v>
+      </c>
+      <c r="E48">
+        <v>116</v>
+      </c>
+      <c r="F48">
+        <v>53</v>
+      </c>
+      <c r="G48">
+        <v>70</v>
+      </c>
+      <c r="H48">
+        <v>64</v>
+      </c>
+      <c r="I48">
+        <v>60</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>61.5</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="9"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2007</v>
+      </c>
+      <c r="B49">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>77</v>
+      </c>
+      <c r="E49">
+        <v>109</v>
+      </c>
+      <c r="F49">
+        <v>63</v>
+      </c>
+      <c r="G49">
+        <v>59</v>
+      </c>
+      <c r="H49">
+        <v>69</v>
+      </c>
+      <c r="I49">
+        <v>55</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="9"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2008</v>
+      </c>
+      <c r="B50">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>79</v>
+      </c>
+      <c r="E50">
+        <v>107</v>
+      </c>
+      <c r="F50">
+        <v>64</v>
+      </c>
+      <c r="G50">
+        <v>59</v>
+      </c>
+      <c r="H50">
+        <v>69</v>
+      </c>
+      <c r="I50">
+        <v>55</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>61.5</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="9"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2009</v>
+      </c>
+      <c r="B51">
+        <v>82</v>
+      </c>
+      <c r="C51">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>84</v>
+      </c>
+      <c r="E51">
+        <v>103</v>
+      </c>
+      <c r="F51">
+        <v>71</v>
+      </c>
+      <c r="G51">
+        <v>53</v>
+      </c>
+      <c r="H51">
+        <v>79</v>
+      </c>
+      <c r="I51">
+        <v>45</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>93.5</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="9"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2010</v>
+      </c>
+      <c r="B52">
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>103</v>
+      </c>
+      <c r="F52">
+        <v>70</v>
+      </c>
+      <c r="G52">
+        <v>53</v>
+      </c>
+      <c r="H52">
+        <v>78</v>
+      </c>
+      <c r="I52">
+        <v>46</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="6"/>
+        <v>93.5</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>61.5</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="9"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2011</v>
+      </c>
+      <c r="B53">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>61</v>
+      </c>
+      <c r="E53">
+        <v>126</v>
+      </c>
+      <c r="F53">
+        <v>47</v>
+      </c>
+      <c r="G53">
+        <v>77</v>
+      </c>
+      <c r="H53">
+        <v>70</v>
+      </c>
+      <c r="I53">
+        <v>53</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="6"/>
+        <v>93.5</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="8"/>
+        <v>61.5</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="9"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2012</v>
+      </c>
+      <c r="B54">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>61</v>
+      </c>
+      <c r="E54">
+        <v>125</v>
+      </c>
+      <c r="F54">
+        <v>47</v>
+      </c>
+      <c r="G54">
+        <v>76</v>
+      </c>
+      <c r="H54">
+        <v>69</v>
+      </c>
+      <c r="I54">
+        <v>53</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="7"/>
+        <v>61.5</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="9"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2013</v>
+      </c>
+      <c r="B55">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>63</v>
+      </c>
+      <c r="E55">
+        <v>129</v>
+      </c>
+      <c r="F55">
+        <v>47</v>
+      </c>
+      <c r="G55">
+        <v>71</v>
+      </c>
+      <c r="H55">
+        <v>79</v>
+      </c>
+      <c r="I55">
+        <v>49</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="P55">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="9"/>
-        <v>535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1997</v>
-      </c>
-      <c r="C39">
-        <v>61</v>
-      </c>
-      <c r="D39">
-        <v>44</v>
-      </c>
-      <c r="E39">
-        <v>76</v>
-      </c>
-      <c r="F39">
-        <v>106</v>
-      </c>
-      <c r="G39">
-        <v>50</v>
-      </c>
-      <c r="H39">
-        <v>68</v>
-      </c>
-      <c r="I39">
-        <v>63</v>
-      </c>
-      <c r="J39">
-        <v>66</v>
-      </c>
-      <c r="L39">
-        <v>4</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="5"/>
-        <v>52.5</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="8"/>
-        <v>64.5</v>
-      </c>
-      <c r="R39">
+      <c r="Q55">
         <f t="shared" si="9"/>
         <v>534</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>1998</v>
-      </c>
-      <c r="C40">
-        <v>62</v>
-      </c>
-      <c r="D40">
-        <v>44</v>
-      </c>
-      <c r="E40">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2014</v>
+      </c>
+      <c r="B56">
+        <v>66</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>63</v>
+      </c>
+      <c r="E56">
+        <v>131</v>
+      </c>
+      <c r="F56">
+        <v>47</v>
+      </c>
+      <c r="G56">
+        <v>71</v>
+      </c>
+      <c r="H56">
+        <v>79</v>
+      </c>
+      <c r="I56">
+        <v>49</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56:M59" si="10">(B56+C56)/2</f>
+        <v>48</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:N59" si="11">(D56+E56)/2</f>
+        <v>97</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ref="O56:O59" si="12">(F56+G56)/2</f>
+        <v>59</v>
+      </c>
+      <c r="P56">
+        <f t="shared" ref="P56:P59" si="13">(H56+I56)/2</f>
+        <v>64</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" ref="Q56:Q59" si="14">SUM(B56:I56)</f>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2015</v>
+      </c>
+      <c r="B57">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>35</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>139</v>
+      </c>
+      <c r="F57">
+        <v>43</v>
+      </c>
+      <c r="G57">
+        <v>74</v>
+      </c>
+      <c r="H57">
+        <v>74</v>
+      </c>
+      <c r="I57">
+        <v>54</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="12"/>
+        <v>58.5</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="14"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2016</v>
+      </c>
+      <c r="B58">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>55</v>
+      </c>
+      <c r="E58">
+        <v>139</v>
+      </c>
+      <c r="F58">
+        <v>43</v>
+      </c>
+      <c r="G58">
+        <v>74</v>
+      </c>
+      <c r="H58">
+        <v>73</v>
+      </c>
+      <c r="I58">
+        <v>54</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="12"/>
+        <v>58.5</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="13"/>
+        <v>63.5</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="14"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2017</v>
+      </c>
+      <c r="B59">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>31</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>137</v>
+      </c>
+      <c r="F59">
+        <v>43</v>
+      </c>
+      <c r="G59">
+        <v>74</v>
+      </c>
+      <c r="H59">
         <v>76</v>
       </c>
-      <c r="F40">
-        <v>106</v>
-      </c>
-      <c r="G40">
+      <c r="I59">
         <v>51</v>
       </c>
-      <c r="H40">
-        <v>68</v>
-      </c>
-      <c r="I40">
-        <v>63</v>
-      </c>
-      <c r="J40">
-        <v>66</v>
-      </c>
-      <c r="L40">
-        <v>4</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="7"/>
-        <v>59.5</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="8"/>
-        <v>64.5</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="9"/>
-        <v>536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>1999</v>
-      </c>
-      <c r="C41">
-        <v>65</v>
-      </c>
-      <c r="D41">
-        <v>41</v>
-      </c>
-      <c r="E41">
-        <v>75</v>
-      </c>
-      <c r="F41">
-        <v>107</v>
-      </c>
-      <c r="G41">
-        <v>53</v>
-      </c>
-      <c r="H41">
-        <v>66</v>
-      </c>
-      <c r="I41">
-        <v>63</v>
-      </c>
-      <c r="J41">
-        <v>66</v>
-      </c>
-      <c r="L41">
-        <v>4</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="7"/>
-        <v>59.5</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="8"/>
-        <v>64.5</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="9"/>
-        <v>536</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2000</v>
-      </c>
-      <c r="C42">
-        <v>65</v>
-      </c>
-      <c r="D42">
-        <v>41</v>
-      </c>
-      <c r="E42">
-        <v>76</v>
-      </c>
-      <c r="F42">
-        <v>105</v>
-      </c>
-      <c r="G42">
-        <v>53</v>
-      </c>
-      <c r="H42">
-        <v>66</v>
-      </c>
-      <c r="I42">
-        <v>63</v>
-      </c>
-      <c r="J42">
-        <v>66</v>
-      </c>
-      <c r="L42">
-        <v>4</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="6"/>
-        <v>90.5</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="7"/>
-        <v>59.5</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="8"/>
-        <v>64.5</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="9"/>
-        <v>535</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2001</v>
-      </c>
-      <c r="C43">
-        <v>63</v>
-      </c>
-      <c r="D43">
-        <v>43</v>
-      </c>
-      <c r="E43">
-        <v>76</v>
-      </c>
-      <c r="F43">
-        <v>106</v>
-      </c>
-      <c r="G43">
-        <v>60</v>
-      </c>
-      <c r="H43">
-        <v>59</v>
-      </c>
-      <c r="I43">
-        <v>63</v>
-      </c>
-      <c r="J43">
-        <v>66</v>
-      </c>
-      <c r="L43">
+      <c r="J59">
         <v>3</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="7"/>
-        <v>59.5</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="8"/>
-        <v>64.5</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="9"/>
-        <v>536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2002</v>
-      </c>
-      <c r="C44">
-        <v>63</v>
-      </c>
-      <c r="D44">
-        <v>43</v>
-      </c>
-      <c r="E44">
-        <v>76</v>
-      </c>
-      <c r="F44">
-        <v>106</v>
-      </c>
-      <c r="G44">
-        <v>59</v>
-      </c>
-      <c r="H44">
-        <v>58</v>
-      </c>
-      <c r="I44">
-        <v>59</v>
-      </c>
-      <c r="J44">
-        <v>68</v>
-      </c>
-      <c r="L44">
-        <v>3</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="7"/>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="10"/>
+        <v>47.5</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="12"/>
         <v>58.5</v>
       </c>
-      <c r="Q44">
-        <f t="shared" si="8"/>
+      <c r="P59">
+        <f t="shared" si="13"/>
         <v>63.5</v>
       </c>
-      <c r="R44">
-        <f t="shared" si="9"/>
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2003</v>
-      </c>
-      <c r="C45">
-        <v>59</v>
-      </c>
-      <c r="D45">
-        <v>42</v>
-      </c>
-      <c r="E45">
-        <v>79</v>
-      </c>
-      <c r="F45">
-        <v>107</v>
-      </c>
-      <c r="G45">
-        <v>62</v>
-      </c>
-      <c r="H45">
-        <v>62</v>
-      </c>
-      <c r="I45">
-        <v>52</v>
-      </c>
-      <c r="J45">
-        <v>72</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="9"/>
-        <v>535</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>2004</v>
-      </c>
-      <c r="C46">
-        <v>59</v>
-      </c>
-      <c r="D46">
-        <v>42</v>
-      </c>
-      <c r="E46">
-        <v>80</v>
-      </c>
-      <c r="F46">
-        <v>106</v>
-      </c>
-      <c r="G46">
-        <v>62</v>
-      </c>
-      <c r="H46">
-        <v>62</v>
-      </c>
-      <c r="I46">
-        <v>53</v>
-      </c>
-      <c r="J46">
-        <v>70</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="8"/>
-        <v>61.5</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="9"/>
-        <v>534</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2005</v>
-      </c>
-      <c r="C47">
-        <v>61</v>
-      </c>
-      <c r="D47">
-        <v>40</v>
-      </c>
-      <c r="E47">
-        <v>70</v>
-      </c>
-      <c r="F47">
-        <v>117</v>
-      </c>
-      <c r="G47">
-        <v>64</v>
-      </c>
-      <c r="H47">
-        <v>59</v>
-      </c>
-      <c r="I47">
-        <v>53</v>
-      </c>
-      <c r="J47">
-        <v>71</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="6"/>
-        <v>93.5</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="7"/>
-        <v>61.5</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="9"/>
-        <v>535</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2006</v>
-      </c>
-      <c r="C48">
-        <v>61</v>
-      </c>
-      <c r="D48">
-        <v>40</v>
-      </c>
-      <c r="E48">
-        <v>70</v>
-      </c>
-      <c r="F48">
-        <v>116</v>
-      </c>
-      <c r="G48">
-        <v>64</v>
-      </c>
-      <c r="H48">
-        <v>60</v>
-      </c>
-      <c r="I48">
-        <v>53</v>
-      </c>
-      <c r="J48">
-        <v>70</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="8"/>
-        <v>61.5</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="9"/>
-        <v>534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>2007</v>
-      </c>
-      <c r="C49">
-        <v>74</v>
-      </c>
-      <c r="D49">
-        <v>27</v>
-      </c>
-      <c r="E49">
-        <v>77</v>
-      </c>
-      <c r="F49">
-        <v>109</v>
-      </c>
-      <c r="G49">
-        <v>69</v>
-      </c>
-      <c r="H49">
-        <v>55</v>
-      </c>
-      <c r="I49">
-        <v>63</v>
-      </c>
-      <c r="J49">
-        <v>59</v>
-      </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="8"/>
-        <v>61</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="9"/>
+      <c r="Q59">
+        <f t="shared" si="14"/>
         <v>533</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>2008</v>
-      </c>
-      <c r="C50">
-        <v>74</v>
-      </c>
-      <c r="D50">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>79</v>
-      </c>
-      <c r="F50">
-        <v>107</v>
-      </c>
-      <c r="G50">
-        <v>69</v>
-      </c>
-      <c r="H50">
-        <v>55</v>
-      </c>
-      <c r="I50">
-        <v>64</v>
-      </c>
-      <c r="J50">
-        <v>59</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="8"/>
-        <v>61.5</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="9"/>
-        <v>534</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2009</v>
-      </c>
-      <c r="C51">
-        <v>82</v>
-      </c>
-      <c r="D51">
-        <v>19</v>
-      </c>
-      <c r="E51">
-        <v>84</v>
-      </c>
-      <c r="F51">
-        <v>103</v>
-      </c>
-      <c r="G51">
-        <v>79</v>
-      </c>
-      <c r="H51">
-        <v>45</v>
-      </c>
-      <c r="I51">
-        <v>71</v>
-      </c>
-      <c r="J51">
-        <v>53</v>
-      </c>
-      <c r="L51">
-        <v>5</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="6"/>
-        <v>93.5</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="9"/>
-        <v>536</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2010</v>
-      </c>
-      <c r="C52">
-        <v>80</v>
-      </c>
-      <c r="D52">
-        <v>21</v>
-      </c>
-      <c r="E52">
-        <v>84</v>
-      </c>
-      <c r="F52">
-        <v>103</v>
-      </c>
-      <c r="G52">
-        <v>78</v>
-      </c>
-      <c r="H52">
-        <v>46</v>
-      </c>
-      <c r="I52">
-        <v>70</v>
-      </c>
-      <c r="J52">
-        <v>53</v>
-      </c>
-      <c r="L52">
-        <v>5</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="6"/>
-        <v>93.5</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="8"/>
-        <v>61.5</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="9"/>
-        <v>535</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2011</v>
-      </c>
-      <c r="C53">
-        <v>66</v>
-      </c>
-      <c r="D53">
-        <v>35</v>
-      </c>
-      <c r="E53">
-        <v>61</v>
-      </c>
-      <c r="F53">
-        <v>126</v>
-      </c>
-      <c r="G53">
-        <v>70</v>
-      </c>
-      <c r="H53">
-        <v>53</v>
-      </c>
-      <c r="I53">
-        <v>47</v>
-      </c>
-      <c r="J53">
-        <v>77</v>
-      </c>
-      <c r="L53">
-        <v>5</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="6"/>
-        <v>93.5</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="7"/>
-        <v>61.5</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="9"/>
-        <v>535</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>2012</v>
-      </c>
-      <c r="C54">
-        <v>66</v>
-      </c>
-      <c r="D54">
-        <v>35</v>
-      </c>
-      <c r="E54">
-        <v>61</v>
-      </c>
-      <c r="F54">
-        <v>125</v>
-      </c>
-      <c r="G54">
-        <v>69</v>
-      </c>
-      <c r="H54">
-        <v>53</v>
-      </c>
-      <c r="I54">
-        <v>47</v>
-      </c>
-      <c r="J54">
-        <v>76</v>
-      </c>
-      <c r="L54">
-        <v>5</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="8"/>
-        <v>61.5</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="9"/>
-        <v>532</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>2013</v>
-      </c>
-      <c r="C55">
-        <v>66</v>
-      </c>
-      <c r="D55">
-        <v>30</v>
-      </c>
-      <c r="E55">
-        <v>63</v>
-      </c>
-      <c r="F55">
-        <v>129</v>
-      </c>
-      <c r="G55">
-        <v>79</v>
-      </c>
-      <c r="H55">
-        <v>49</v>
-      </c>
-      <c r="I55">
-        <v>47</v>
-      </c>
-      <c r="J55">
-        <v>71</v>
-      </c>
-      <c r="L55">
-        <v>5</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="8"/>
-        <v>59</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="9"/>
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -8188,7 +8648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
